--- a/tests/brightness.xlsx
+++ b/tests/brightness.xlsx
@@ -423,7 +423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C360"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -506,6 +506,5331 @@
       </c>
       <c r="C5" t="n">
         <v>133.0385221354167</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>16/05/2021</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>10:02:28</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>140.9365494791667</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>16/05/2021</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>10:02:40</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>135.769384765625</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>16/05/2021</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>10:03:35</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>140.9205631510417</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>16/05/2021</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>10:04:48</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>140.999033203125</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>16/05/2021</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>10:14:50</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>118.872255859375</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>16/05/2021</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>10:24:52</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>132.838701171875</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>16/05/2021</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>10:34:54</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>133.8006770833333</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>16/05/2021</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>10:44:55</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>143.6149446614583</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>16/05/2021</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>10:54:57</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>134.4895865885417</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>16/05/2021</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>11:04:59</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>138.2539095052083</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>16/05/2021</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>11:15:00</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>135.529306640625</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>16/05/2021</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>11:16:44</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>136.008203125</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>16/05/2021</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>11:26:46</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>142.556083984375</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>16/05/2021</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>11:36:48</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>142.9567024739583</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>16/05/2021</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>11:46:50</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>130.0636653645833</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>16/05/2021</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>11:56:51</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>123.28138671875</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>16/05/2021</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>12:06:53</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>148.322841796875</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>16/05/2021</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>12:16:55</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>124.4713411458333</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>16/05/2021</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>12:26:56</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>120.812607421875</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>16/05/2021</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>12:36:58</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>142.1561783854167</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>16/05/2021</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>12:47:00</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>144.11431640625</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>16/05/2021</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>12:57:01</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>138.374296875</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>16/05/2021</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>13:07:03</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>126.6872395833333</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>16/05/2021</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>13:17:04</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>143.2269954427083</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>16/05/2021</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>13:27:06</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>139.4924739583333</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>16/05/2021</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>13:37:08</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>139.1055436197917</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>16/05/2021</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>13:47:09</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>131.23298828125</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>16/05/2021</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>13:57:11</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>127.21705078125</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>16/05/2021</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>14:07:13</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>131.113388671875</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>16/05/2021</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>14:17:14</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>140.619921875</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>16/05/2021</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>14:27:16</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>143.106083984375</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>16/05/2021</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>14:37:17</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>143.1264388020833</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>16/05/2021</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>14:47:19</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>131.5146321614583</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>16/05/2021</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>14:57:21</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>140.591064453125</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>16/05/2021</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>15:07:22</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>135.48556640625</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>16/05/2021</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>15:17:24</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>143.96427734375</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>16/05/2021</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>15:27:25</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>138.28845703125</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>16/05/2021</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>15:37:27</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>138.5790885416667</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>16/05/2021</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>15:47:29</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>142.8531901041667</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>16/05/2021</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>15:57:30</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>142.1954361979167</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>16/05/2021</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>16:07:32</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>140.7026627604167</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>16/05/2021</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>16:17:34</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>137.1505696614583</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>16/05/2021</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>16:27:35</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>131.3806575520833</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>16/05/2021</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>16:37:37</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>134.3053841145833</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>16/05/2021</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>16:47:38</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>143.9234147135417</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>16/05/2021</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>16:57:40</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>137.9291276041667</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>16/05/2021</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>17:07:42</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>139.0405729166667</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>16/05/2021</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>17:17:43</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>143.0282454427083</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>16/05/2021</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>17:27:45</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>141.5740592447917</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>16/05/2021</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>17:37:47</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>144.4997819010417</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>16/05/2021</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>17:47:48</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>148.211484375</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>16/05/2021</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>17:57:50</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>147.5006575520833</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>16/05/2021</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>18:07:51</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>140.858193359375</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>16/05/2021</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>18:17:53</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>151.3803483072917</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>16/05/2021</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>18:27:55</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>146.6501432291667</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>16/05/2021</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>18:37:56</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>145.0703580729167</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>16/05/2021</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>18:47:58</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>144.1226595052083</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>16/05/2021</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>18:57:59</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>146.4154166666667</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>16/05/2021</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>19:08:01</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>143.159130859375</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>16/05/2021</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>19:18:03</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>139.6675716145833</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>16/05/2021</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>19:28:04</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>154.3941569010417</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>16/05/2021</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>19:38:06</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>157.49587890625</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>16/05/2021</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>19:48:08</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>155.8096712239583</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>16/05/2021</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>19:58:09</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>150.0101692708333</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>16/05/2021</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>20:08:11</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>146.0745768229167</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>16/05/2021</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>20:18:13</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>148.9264192708333</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>16/05/2021</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>20:28:14</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>149.841484375</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>16/05/2021</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>20:38:16</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>189.7896419270833</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>16/05/2021</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>20:48:18</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>90.44110677083333</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>16/05/2021</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>20:58:19</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>25.830400390625</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>16/05/2021</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>21:08:21</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>7.380589192708333</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>16/05/2021</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>21:18:23</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>6.532428385416667</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>16/05/2021</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>21:28:24</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>6.433798828125</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>16/05/2021</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>21:38:26</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>5.98349609375</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>08:16:24</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>137.7826953125</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>08:26:26</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>135.7888313802083</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>08:36:28</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>138.3404915364583</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>08:46:30</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>117.9931022135417</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>08:52:37</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>08:53:50</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>08:58:52</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>141.7087044270833</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>09:03:54</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>141.56013671875</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>09:08:56</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>146.0117447916667</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>09:13:57</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>115.0286946614583</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>09:18:59</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>121.098251953125</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>09:24:01</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>141.4400032552083</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>09:29:02</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>150.7454622395833</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>09:34:04</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>163.9671061197917</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>09:39:05</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>145.69345703125</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>09:44:07</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>140.08765625</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>09:49:09</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>171.1739420572917</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>09:54:10</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>167.9346419270833</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>09:59:12</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>174.0518229166667</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>10:04:14</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>171.964599609375</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>10:09:15</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>165.4284342447917</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>10:14:17</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>148.79119140625</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>10:19:18</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>149.5374479166667</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>10:24:20</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>120.04810546875</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>10:29:22</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>129.71166015625</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>10:34:23</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>130.20236328125</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>10:39:25</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>126.7930240885417</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>10:44:27</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>132.3743717447917</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>10:49:28</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>136.8808040364583</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>10:54:30</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>130.8382877604167</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>10:59:31</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>132.1238248697917</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>11:04:33</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>142.7263997395833</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>11:09:35</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>143.5549967447917</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>11:14:36</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>135.4543131510417</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>11:19:38</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>136.0687955729167</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>11:24:40</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>141.910615234375</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>11:29:41</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>141.3858951822917</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>11:34:43</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>141.222138671875</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>11:39:44</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>133.51646484375</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>11:44:46</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>131.379150390625</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>11:49:48</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>136.2486360677083</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>11:54:49</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>139.2331087239583</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>11:59:51</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>139.10267578125</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>12:04:53</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>141.99517578125</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>12:09:54</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>146.0999934895833</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>12:14:56</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>144.2131315104167</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>12:19:58</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>135.98765625</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>12:24:59</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>137.3475423177083</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>12:30:01</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>142.8301334635417</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>12:35:03</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>145.0438899739583</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>12:40:04</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>139.7197395833333</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>12:45:06</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>145.0657682291667</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>12:50:08</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>144.896708984375</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>12:55:09</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>143.6048828125</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>13:00:11</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>145.0549381510417</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>13:05:13</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>140.8478645833333</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>13:10:14</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>132.1362337239583</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>13:15:16</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>141.18041015625</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>13:20:17</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>134.19802734375</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>13:25:19</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>141.9502734375</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>13:30:21</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>134.3697102864583</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>13:35:22</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>135.4090885416667</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>13:40:24</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>135.1508658854167</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>13:45:25</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>144.966044921875</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>13:50:27</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>142.2132779947917</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>13:55:29</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>138.2962109375</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>14:00:30</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>137.2690104166667</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>14:05:32</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>144.5170670572917</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>14:10:34</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>144.3053743489583</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>14:15:35</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>138.6137890625</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>14:20:37</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>137.2952962239583</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>14:25:38</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>144.6415169270833</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>14:30:40</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>144.628642578125</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>14:35:42</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>144.89072265625</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>14:40:43</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>140.2150423177083</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>14:45:45</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>135.535087890625</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>14:50:47</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>138.7873274739583</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>14:55:48</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>137.3574674479167</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>15:00:50</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>137.8988346354167</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>15:05:52</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>142.6021484375</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>15:10:53</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>136.7558821614583</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>15:15:55</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>136.4655696614583</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>15:20:57</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>137.3416373697917</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>15:25:58</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>140.8792220052083</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>15:31:00</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>143.7316634114583</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>15:36:02</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>138.3108040364583</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>15:41:03</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>141.0213411458333</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>15:46:05</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>143.4225032552083</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>15:51:06</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>143.2043880208333</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>15:56:08</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>140.5176399739583</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>16:01:10</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>136.4261295572917</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>16:06:11</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>137.6471028645833</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>16:11:13</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>142.444169921875</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>16:16:15</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>144.613974609375</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>16:21:16</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>137.4691569010417</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>16:26:18</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>137.7586490885417</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>16:31:19</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>142.1710579427083</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>16:36:21</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>143.5830598958333</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>16:41:23</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>133.0368326822917</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>16:46:24</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>141.25814453125</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>16:51:26</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>136.6371647135417</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>16:56:28</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>138.2457063802083</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>17:01:29</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>136.3500651041667</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>17:06:31</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>138.955361328125</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>17:11:33</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>138.2234342447917</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>17:16:34</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>136.2492708333333</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>17:21:36</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>141.3263639322917</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>17:26:38</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>141.8115364583333</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>17:31:39</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>141.9329752604167</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>17:36:41</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>137.1146940104167</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>17:41:43</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>137.92646484375</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>17:46:44</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>134.6719954427083</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>17:51:46</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>134.2706966145833</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>17:56:48</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>136.599892578125</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>18:01:49</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>140.994013671875</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>18:06:51</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>139.987607421875</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>18:11:53</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>140.0027506510417</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>18:16:54</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>141.5880501302083</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>18:21:56</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>139.6807161458333</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>18:26:58</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>142.7486783854167</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>18:31:59</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>139.8000130208333</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>18:37:01</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>137.8223111979167</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>18:42:03</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>130.3777962239583</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>18:47:04</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>143.3285091145833</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>18:52:06</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>135.285234375</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>18:57:07</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>139.1593424479167</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>19:02:09</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>127.2420475260417</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>19:07:10</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>135.8268977864583</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>19:12:12</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>128.390498046875</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>19:17:14</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>134.66865234375</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>19:22:15</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>131.471005859375</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>19:27:17</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>131.1277962239583</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>19:32:19</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>134.3207779947917</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>19:37:20</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>137.4260677083333</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>19:42:22</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>139.45314453125</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>19:47:24</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>145.111904296875</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>19:52:25</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>143.6036555989583</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>19:57:27</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>145.2067122395833</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>20:02:29</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>145.3501529947917</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>20:07:31</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>152.0756412760417</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>20:12:32</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>182.9732356770833</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>20:17:34</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>183.0194108072917</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>20:22:36</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>59.79176106770834</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>20:27:38</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>45.34755208333333</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>20:32:40</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>19.04104817708333</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>20:37:41</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>13.83401692708333</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>20:42:43</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>11.182626953125</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>20:47:45</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>5.097526041666667</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>20:52:47</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>5.275745442708334</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>20:57:48</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
+        <v>4.040771484375</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>21:02:50</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>2.742278645833333</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>21:07:52</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
+        <v>1.940472005208333</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>08:49:37</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>132.7935319010417</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>08:54:39</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>139.02689453125</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>08:59:41</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>143.3798111979167</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>09:04:43</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>141.5471028645833</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>09:09:45</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>141.6649837239583</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>09:14:46</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>142.5078287760417</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>09:19:48</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>143.968427734375</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>09:24:50</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
+        <v>134.3234635416667</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>09:29:51</t>
+        </is>
+      </c>
+      <c r="C240" t="n">
+        <v>139.971123046875</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>09:34:53</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>140.891611328125</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>09:39:55</t>
+        </is>
+      </c>
+      <c r="C242" t="n">
+        <v>138.1618619791667</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>09:44:56</t>
+        </is>
+      </c>
+      <c r="C243" t="n">
+        <v>140.68400390625</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>09:49:58</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
+        <v>137.1234505208333</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>09:55:00</t>
+        </is>
+      </c>
+      <c r="C245" t="n">
+        <v>143.7181640625</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>10:00:01</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
+        <v>143.0146614583333</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>10:05:03</t>
+        </is>
+      </c>
+      <c r="C247" t="n">
+        <v>143.5276920572917</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>10:10:05</t>
+        </is>
+      </c>
+      <c r="C248" t="n">
+        <v>143.3535123697917</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>10:15:07</t>
+        </is>
+      </c>
+      <c r="C249" t="n">
+        <v>139.0105989583333</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>10:20:08</t>
+        </is>
+      </c>
+      <c r="C250" t="n">
+        <v>130.0135514322917</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>10:25:10</t>
+        </is>
+      </c>
+      <c r="C251" t="n">
+        <v>137.278388671875</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>10:30:12</t>
+        </is>
+      </c>
+      <c r="C252" t="n">
+        <v>146.6160904947917</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>10:35:13</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>136.86697265625</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>10:40:15</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>138.10109375</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>10:45:17</t>
+        </is>
+      </c>
+      <c r="C255" t="n">
+        <v>136.6702018229167</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>10:50:18</t>
+        </is>
+      </c>
+      <c r="C256" t="n">
+        <v>128.4555826822917</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>10:55:20</t>
+        </is>
+      </c>
+      <c r="C257" t="n">
+        <v>144.1034342447917</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>11:00:22</t>
+        </is>
+      </c>
+      <c r="C258" t="n">
+        <v>137.4170475260417</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>11:05:24</t>
+        </is>
+      </c>
+      <c r="C259" t="n">
+        <v>138.10978515625</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>11:10:25</t>
+        </is>
+      </c>
+      <c r="C260" t="n">
+        <v>140.4472265625</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>11:15:27</t>
+        </is>
+      </c>
+      <c r="C261" t="n">
+        <v>144.3355924479167</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>11:20:29</t>
+        </is>
+      </c>
+      <c r="C262" t="n">
+        <v>139.48267578125</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>11:25:30</t>
+        </is>
+      </c>
+      <c r="C263" t="n">
+        <v>129.3047786458333</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>11:30:32</t>
+        </is>
+      </c>
+      <c r="C264" t="n">
+        <v>134.0136295572917</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>11:35:34</t>
+        </is>
+      </c>
+      <c r="C265" t="n">
+        <v>131.1862955729167</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>11:40:35</t>
+        </is>
+      </c>
+      <c r="C266" t="n">
+        <v>137.7516829427083</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>11:45:37</t>
+        </is>
+      </c>
+      <c r="C267" t="n">
+        <v>143.0648763020833</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>11:50:39</t>
+        </is>
+      </c>
+      <c r="C268" t="n">
+        <v>138.7834049479167</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>11:55:40</t>
+        </is>
+      </c>
+      <c r="C269" t="n">
+        <v>143.2332259114583</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>12:00:42</t>
+        </is>
+      </c>
+      <c r="C270" t="n">
+        <v>128.123515625</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>12:05:44</t>
+        </is>
+      </c>
+      <c r="C271" t="n">
+        <v>141.7592252604167</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>12:10:46</t>
+        </is>
+      </c>
+      <c r="C272" t="n">
+        <v>129.3945930989583</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>12:15:47</t>
+        </is>
+      </c>
+      <c r="C273" t="n">
+        <v>137.0408561197917</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>12:20:49</t>
+        </is>
+      </c>
+      <c r="C274" t="n">
+        <v>142.0473893229167</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>12:25:51</t>
+        </is>
+      </c>
+      <c r="C275" t="n">
+        <v>141.43212890625</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>12:30:52</t>
+        </is>
+      </c>
+      <c r="C276" t="n">
+        <v>144.6485970052083</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>12:35:54</t>
+        </is>
+      </c>
+      <c r="C277" t="n">
+        <v>144.0197786458333</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>12:40:56</t>
+        </is>
+      </c>
+      <c r="C278" t="n">
+        <v>143.0361165364583</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>12:45:57</t>
+        </is>
+      </c>
+      <c r="C279" t="n">
+        <v>134.767294921875</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>12:50:59</t>
+        </is>
+      </c>
+      <c r="C280" t="n">
+        <v>132.9762923177083</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>12:56:01</t>
+        </is>
+      </c>
+      <c r="C281" t="n">
+        <v>142.0653255208333</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>13:01:03</t>
+        </is>
+      </c>
+      <c r="C282" t="n">
+        <v>144.0939811197917</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>13:06:04</t>
+        </is>
+      </c>
+      <c r="C283" t="n">
+        <v>141.589716796875</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>13:11:06</t>
+        </is>
+      </c>
+      <c r="C284" t="n">
+        <v>133.2849251302083</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>13:16:08</t>
+        </is>
+      </c>
+      <c r="C285" t="n">
+        <v>135.6049641927083</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>13:21:09</t>
+        </is>
+      </c>
+      <c r="C286" t="n">
+        <v>143.8215104166667</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>13:26:11</t>
+        </is>
+      </c>
+      <c r="C287" t="n">
+        <v>138.166064453125</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>13:31:13</t>
+        </is>
+      </c>
+      <c r="C288" t="n">
+        <v>144.0937890625</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>13:36:15</t>
+        </is>
+      </c>
+      <c r="C289" t="n">
+        <v>137.2916666666667</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>13:41:16</t>
+        </is>
+      </c>
+      <c r="C290" t="n">
+        <v>137.7620638020833</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>13:46:18</t>
+        </is>
+      </c>
+      <c r="C291" t="n">
+        <v>141.7592057291667</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>13:51:20</t>
+        </is>
+      </c>
+      <c r="C292" t="n">
+        <v>138.833017578125</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>13:56:21</t>
+        </is>
+      </c>
+      <c r="C293" t="n">
+        <v>130.750283203125</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>14:01:23</t>
+        </is>
+      </c>
+      <c r="C294" t="n">
+        <v>129.9952799479167</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>14:06:25</t>
+        </is>
+      </c>
+      <c r="C295" t="n">
+        <v>136.9739811197917</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>14:11:27</t>
+        </is>
+      </c>
+      <c r="C296" t="n">
+        <v>140.9992545572917</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>14:16:28</t>
+        </is>
+      </c>
+      <c r="C297" t="n">
+        <v>132.0455110677083</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>14:21:30</t>
+        </is>
+      </c>
+      <c r="C298" t="n">
+        <v>136.9844368489583</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>14:26:32</t>
+        </is>
+      </c>
+      <c r="C299" t="n">
+        <v>143.2188151041667</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>14:31:33</t>
+        </is>
+      </c>
+      <c r="C300" t="n">
+        <v>144.084111328125</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>14:36:35</t>
+        </is>
+      </c>
+      <c r="C301" t="n">
+        <v>143.9292057291667</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>14:41:37</t>
+        </is>
+      </c>
+      <c r="C302" t="n">
+        <v>145.5247493489583</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>14:46:38</t>
+        </is>
+      </c>
+      <c r="C303" t="n">
+        <v>142.4369205729167</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>14:51:40</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>144.1494563802083</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>14:56:42</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>139.797607421875</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>15:01:44</t>
+        </is>
+      </c>
+      <c r="C306" t="n">
+        <v>145.0271061197917</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>15:06:46</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>143.5147526041667</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>15:11:47</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>136.159990234375</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>15:16:49</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
+        <v>133.299951171875</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>15:21:51</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>142.7470052083333</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>15:26:52</t>
+        </is>
+      </c>
+      <c r="C311" t="n">
+        <v>137.4853255208333</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>15:31:54</t>
+        </is>
+      </c>
+      <c r="C312" t="n">
+        <v>144.8307486979167</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>15:36:56</t>
+        </is>
+      </c>
+      <c r="C313" t="n">
+        <v>144.74248046875</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>15:41:58</t>
+        </is>
+      </c>
+      <c r="C314" t="n">
+        <v>145.4451725260417</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>15:47:00</t>
+        </is>
+      </c>
+      <c r="C315" t="n">
+        <v>144.916689453125</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>15:52:01</t>
+        </is>
+      </c>
+      <c r="C316" t="n">
+        <v>145.0219889322917</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>15:57:03</t>
+        </is>
+      </c>
+      <c r="C317" t="n">
+        <v>142.498828125</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>16:02:05</t>
+        </is>
+      </c>
+      <c r="C318" t="n">
+        <v>128.2786555989583</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>16:07:07</t>
+        </is>
+      </c>
+      <c r="C319" t="n">
+        <v>128.69083984375</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>16:12:08</t>
+        </is>
+      </c>
+      <c r="C320" t="n">
+        <v>135.9172493489583</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>16:17:10</t>
+        </is>
+      </c>
+      <c r="C321" t="n">
+        <v>132.674208984375</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>16:22:12</t>
+        </is>
+      </c>
+      <c r="C322" t="n">
+        <v>128.341357421875</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>16:27:13</t>
+        </is>
+      </c>
+      <c r="C323" t="n">
+        <v>133.1989778645833</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>16:32:15</t>
+        </is>
+      </c>
+      <c r="C324" t="n">
+        <v>136.2135319010417</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>16:37:17</t>
+        </is>
+      </c>
+      <c r="C325" t="n">
+        <v>141.7151953125</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>16:42:18</t>
+        </is>
+      </c>
+      <c r="C326" t="n">
+        <v>137.3989453125</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>16:47:20</t>
+        </is>
+      </c>
+      <c r="C327" t="n">
+        <v>136.7548209635417</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>16:52:22</t>
+        </is>
+      </c>
+      <c r="C328" t="n">
+        <v>144.6374479166667</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>16:57:24</t>
+        </is>
+      </c>
+      <c r="C329" t="n">
+        <v>137.8776692708333</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>17:02:25</t>
+        </is>
+      </c>
+      <c r="C330" t="n">
+        <v>143.7662825520833</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>17:07:27</t>
+        </is>
+      </c>
+      <c r="C331" t="n">
+        <v>137.5199772135417</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>17:12:29</t>
+        </is>
+      </c>
+      <c r="C332" t="n">
+        <v>142.6598828125</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>17:17:30</t>
+        </is>
+      </c>
+      <c r="C333" t="n">
+        <v>138.8206282552083</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>17:22:32</t>
+        </is>
+      </c>
+      <c r="C334" t="n">
+        <v>139.497412109375</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>17:27:34</t>
+        </is>
+      </c>
+      <c r="C335" t="n">
+        <v>139.8411783854167</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>17:32:36</t>
+        </is>
+      </c>
+      <c r="C336" t="n">
+        <v>140.6685677083333</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>17:37:37</t>
+        </is>
+      </c>
+      <c r="C337" t="n">
+        <v>142.6854231770833</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>17:42:39</t>
+        </is>
+      </c>
+      <c r="C338" t="n">
+        <v>144.570732421875</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>17:47:41</t>
+        </is>
+      </c>
+      <c r="C339" t="n">
+        <v>145.711240234375</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>17:52:42</t>
+        </is>
+      </c>
+      <c r="C340" t="n">
+        <v>141.7339290364583</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>17:57:44</t>
+        </is>
+      </c>
+      <c r="C341" t="n">
+        <v>144.188125</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>18:02:46</t>
+        </is>
+      </c>
+      <c r="C342" t="n">
+        <v>148.6801139322917</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>18:07:48</t>
+        </is>
+      </c>
+      <c r="C343" t="n">
+        <v>148.3129915364583</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>18:12:49</t>
+        </is>
+      </c>
+      <c r="C344" t="n">
+        <v>143.4759407552083</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>18:17:51</t>
+        </is>
+      </c>
+      <c r="C345" t="n">
+        <v>141.8281477864583</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>18:22:53</t>
+        </is>
+      </c>
+      <c r="C346" t="n">
+        <v>140.5831282552083</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>18:27:54</t>
+        </is>
+      </c>
+      <c r="C347" t="n">
+        <v>133.535615234375</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>18:32:56</t>
+        </is>
+      </c>
+      <c r="C348" t="n">
+        <v>125.0449088541667</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>18:37:58</t>
+        </is>
+      </c>
+      <c r="C349" t="n">
+        <v>134.0970670572917</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>18:43:00</t>
+        </is>
+      </c>
+      <c r="C350" t="n">
+        <v>131.5801139322917</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>18:48:02</t>
+        </is>
+      </c>
+      <c r="C351" t="n">
+        <v>136.908388671875</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>18:53:03</t>
+        </is>
+      </c>
+      <c r="C352" t="n">
+        <v>137.0353678385417</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>18:58:05</t>
+        </is>
+      </c>
+      <c r="C353" t="n">
+        <v>141.1850227864583</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>19:03:07</t>
+        </is>
+      </c>
+      <c r="C354" t="n">
+        <v>138.9315852864583</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>19:08:09</t>
+        </is>
+      </c>
+      <c r="C355" t="n">
+        <v>135.8375911458333</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>19:13:10</t>
+        </is>
+      </c>
+      <c r="C356" t="n">
+        <v>131.5420084635417</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>19:18:12</t>
+        </is>
+      </c>
+      <c r="C357" t="n">
+        <v>141.2672298177083</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>19:23:14</t>
+        </is>
+      </c>
+      <c r="C358" t="n">
+        <v>139.4354036458333</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>19:28:15</t>
+        </is>
+      </c>
+      <c r="C359" t="n">
+        <v>137.40712890625</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>19:33:17</t>
+        </is>
+      </c>
+      <c r="C360" t="n">
+        <v>132.9780338541667</v>
       </c>
     </row>
   </sheetData>

--- a/tests/brightness.xlsx
+++ b/tests/brightness.xlsx
@@ -423,7 +423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C360"/>
+  <dimension ref="A1:C930"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -5831,6 +5831,8556 @@
       </c>
       <c r="C360" t="n">
         <v>132.9780338541667</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>19:40:57</t>
+        </is>
+      </c>
+      <c r="C361" t="n">
+        <v>135.1281901041667</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>19:45:59</t>
+        </is>
+      </c>
+      <c r="C362" t="n">
+        <v>136.6667513020833</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>19:51:01</t>
+        </is>
+      </c>
+      <c r="C363" t="n">
+        <v>142.3914485677083</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>19:56:02</t>
+        </is>
+      </c>
+      <c r="C364" t="n">
+        <v>145.8453938802083</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>20:01:04</t>
+        </is>
+      </c>
+      <c r="C365" t="n">
+        <v>141.5534505208333</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>20:06:06</t>
+        </is>
+      </c>
+      <c r="C366" t="n">
+        <v>157.8624772135417</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>20:11:08</t>
+        </is>
+      </c>
+      <c r="C367" t="n">
+        <v>151.7070442708333</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>20:16:09</t>
+        </is>
+      </c>
+      <c r="C368" t="n">
+        <v>150.5491341145833</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>20:21:11</t>
+        </is>
+      </c>
+      <c r="C369" t="n">
+        <v>145.9847526041667</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>20:22:11</t>
+        </is>
+      </c>
+      <c r="C370" t="n">
+        <v>150.5397721354167</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>18/05/2021</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>20:27:13</t>
+        </is>
+      </c>
+      <c r="C371" t="n">
+        <v>142.392197265625</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>08:35:11</t>
+        </is>
+      </c>
+      <c r="C372" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>08:40:13</t>
+        </is>
+      </c>
+      <c r="C373" t="n">
+        <v>145.211181640625</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>08:40:43</t>
+        </is>
+      </c>
+      <c r="C374" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>08:40:56</t>
+        </is>
+      </c>
+      <c r="C375" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>08:45:58</t>
+        </is>
+      </c>
+      <c r="C376" t="n">
+        <v>145.08072265625</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>08:51:00</t>
+        </is>
+      </c>
+      <c r="C377" t="n">
+        <v>116.2585026041667</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>08:56:02</t>
+        </is>
+      </c>
+      <c r="C378" t="n">
+        <v>142.5720670572917</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>09:01:04</t>
+        </is>
+      </c>
+      <c r="C379" t="n">
+        <v>124.766259765625</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>09:06:05</t>
+        </is>
+      </c>
+      <c r="C380" t="n">
+        <v>132.7894205729167</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>09:11:07</t>
+        </is>
+      </c>
+      <c r="C381" t="n">
+        <v>130.7773470052083</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>09:16:09</t>
+        </is>
+      </c>
+      <c r="C382" t="n">
+        <v>119.1168391927083</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>09:21:11</t>
+        </is>
+      </c>
+      <c r="C383" t="n">
+        <v>117.4675325520833</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>09:26:12</t>
+        </is>
+      </c>
+      <c r="C384" t="n">
+        <v>136.9996907552083</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>09:31:14</t>
+        </is>
+      </c>
+      <c r="C385" t="n">
+        <v>127.858828125</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>09:36:16</t>
+        </is>
+      </c>
+      <c r="C386" t="n">
+        <v>139.6559733072917</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>09:41:18</t>
+        </is>
+      </c>
+      <c r="C387" t="n">
+        <v>113.5768815104167</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>09:46:19</t>
+        </is>
+      </c>
+      <c r="C388" t="n">
+        <v>116.42638671875</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>09:51:21</t>
+        </is>
+      </c>
+      <c r="C389" t="n">
+        <v>141.4777018229167</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>09:56:23</t>
+        </is>
+      </c>
+      <c r="C390" t="n">
+        <v>120.653515625</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>10:01:25</t>
+        </is>
+      </c>
+      <c r="C391" t="n">
+        <v>128.4223665364583</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>10:06:26</t>
+        </is>
+      </c>
+      <c r="C392" t="n">
+        <v>125.693779296875</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>10:11:28</t>
+        </is>
+      </c>
+      <c r="C393" t="n">
+        <v>131.5871712239583</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>10:16:30</t>
+        </is>
+      </c>
+      <c r="C394" t="n">
+        <v>126.851435546875</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>10:21:31</t>
+        </is>
+      </c>
+      <c r="C395" t="n">
+        <v>148.345009765625</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>10:26:33</t>
+        </is>
+      </c>
+      <c r="C396" t="n">
+        <v>140.5626432291667</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>10:31:35</t>
+        </is>
+      </c>
+      <c r="C397" t="n">
+        <v>124.3029524739583</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>10:36:37</t>
+        </is>
+      </c>
+      <c r="C398" t="n">
+        <v>123.7606966145833</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>10:41:38</t>
+        </is>
+      </c>
+      <c r="C399" t="n">
+        <v>132.6900260416667</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>10:46:40</t>
+        </is>
+      </c>
+      <c r="C400" t="n">
+        <v>129.590556640625</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>10:51:42</t>
+        </is>
+      </c>
+      <c r="C401" t="n">
+        <v>140.531044921875</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>10:56:43</t>
+        </is>
+      </c>
+      <c r="C402" t="n">
+        <v>129.3407421875</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>11:01:45</t>
+        </is>
+      </c>
+      <c r="C403" t="n">
+        <v>122.6884993489583</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>11:06:47</t>
+        </is>
+      </c>
+      <c r="C404" t="n">
+        <v>141.5813932291667</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>11:11:49</t>
+        </is>
+      </c>
+      <c r="C405" t="n">
+        <v>157.8962076822917</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>11:16:50</t>
+        </is>
+      </c>
+      <c r="C406" t="n">
+        <v>126.747138671875</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>11:21:52</t>
+        </is>
+      </c>
+      <c r="C407" t="n">
+        <v>141.2609993489583</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>11:26:54</t>
+        </is>
+      </c>
+      <c r="C408" t="n">
+        <v>139.009736328125</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>11:31:56</t>
+        </is>
+      </c>
+      <c r="C409" t="n">
+        <v>140.9470149739583</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>11:36:57</t>
+        </is>
+      </c>
+      <c r="C410" t="n">
+        <v>165.8879459635417</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>11:41:59</t>
+        </is>
+      </c>
+      <c r="C411" t="n">
+        <v>144.8952734375</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>11:44:10</t>
+        </is>
+      </c>
+      <c r="C412" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>11:44:44</t>
+        </is>
+      </c>
+      <c r="C413" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>11:49:46</t>
+        </is>
+      </c>
+      <c r="C414" t="n">
+        <v>153.52275390625</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>11:54:48</t>
+        </is>
+      </c>
+      <c r="C415" t="n">
+        <v>163.9639290364583</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>11:59:50</t>
+        </is>
+      </c>
+      <c r="C416" t="n">
+        <v>158.5457682291667</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>12:04:51</t>
+        </is>
+      </c>
+      <c r="C417" t="n">
+        <v>153.0724251302083</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>12:09:53</t>
+        </is>
+      </c>
+      <c r="C418" t="n">
+        <v>157.5324544270833</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>12:14:55</t>
+        </is>
+      </c>
+      <c r="C419" t="n">
+        <v>166.7758203125</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>12:19:57</t>
+        </is>
+      </c>
+      <c r="C420" t="n">
+        <v>155.7576106770833</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>12:24:59</t>
+        </is>
+      </c>
+      <c r="C421" t="n">
+        <v>144.53640625</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>12:30:01</t>
+        </is>
+      </c>
+      <c r="C422" t="n">
+        <v>105.5521940104167</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>12:35:02</t>
+        </is>
+      </c>
+      <c r="C423" t="n">
+        <v>115.189677734375</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>12:40:04</t>
+        </is>
+      </c>
+      <c r="C424" t="n">
+        <v>146.7964127604167</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>12:45:06</t>
+        </is>
+      </c>
+      <c r="C425" t="n">
+        <v>126.638408203125</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>12:50:08</t>
+        </is>
+      </c>
+      <c r="C426" t="n">
+        <v>134.0104361979167</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>12:55:09</t>
+        </is>
+      </c>
+      <c r="C427" t="n">
+        <v>141.5736490885417</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>13:00:11</t>
+        </is>
+      </c>
+      <c r="C428" t="n">
+        <v>120.37587890625</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>13:05:13</t>
+        </is>
+      </c>
+      <c r="C429" t="n">
+        <v>120.8483951822917</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>13:10:15</t>
+        </is>
+      </c>
+      <c r="C430" t="n">
+        <v>118.97994140625</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>13:15:16</t>
+        </is>
+      </c>
+      <c r="C431" t="n">
+        <v>131.5116861979167</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>13:20:18</t>
+        </is>
+      </c>
+      <c r="C432" t="n">
+        <v>132.9396809895833</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>13:25:20</t>
+        </is>
+      </c>
+      <c r="C433" t="n">
+        <v>128.89529296875</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>13:30:22</t>
+        </is>
+      </c>
+      <c r="C434" t="n">
+        <v>133.2847526041667</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>13:35:23</t>
+        </is>
+      </c>
+      <c r="C435" t="n">
+        <v>135.28248046875</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>13:40:25</t>
+        </is>
+      </c>
+      <c r="C436" t="n">
+        <v>140.5492708333333</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>13:45:27</t>
+        </is>
+      </c>
+      <c r="C437" t="n">
+        <v>137.004521484375</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>13:50:29</t>
+        </is>
+      </c>
+      <c r="C438" t="n">
+        <v>141.8058430989583</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>13:55:30</t>
+        </is>
+      </c>
+      <c r="C439" t="n">
+        <v>126.284853515625</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>14:00:32</t>
+        </is>
+      </c>
+      <c r="C440" t="n">
+        <v>132.6802278645833</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>14:05:34</t>
+        </is>
+      </c>
+      <c r="C441" t="n">
+        <v>147.50447265625</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>14:10:36</t>
+        </is>
+      </c>
+      <c r="C442" t="n">
+        <v>146.184189453125</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>14:15:37</t>
+        </is>
+      </c>
+      <c r="C443" t="n">
+        <v>136.05458984375</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>14:20:39</t>
+        </is>
+      </c>
+      <c r="C444" t="n">
+        <v>142.3455338541667</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>14:25:41</t>
+        </is>
+      </c>
+      <c r="C445" t="n">
+        <v>146.932685546875</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>14:30:43</t>
+        </is>
+      </c>
+      <c r="C446" t="n">
+        <v>131.6231868489583</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>14:35:44</t>
+        </is>
+      </c>
+      <c r="C447" t="n">
+        <v>138.0611328125</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>14:40:46</t>
+        </is>
+      </c>
+      <c r="C448" t="n">
+        <v>129.2302571614583</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>14:45:48</t>
+        </is>
+      </c>
+      <c r="C449" t="n">
+        <v>133.8361067708333</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>14:50:50</t>
+        </is>
+      </c>
+      <c r="C450" t="n">
+        <v>143.4509049479167</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>14:55:51</t>
+        </is>
+      </c>
+      <c r="C451" t="n">
+        <v>142.7494954427083</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>15:00:53</t>
+        </is>
+      </c>
+      <c r="C452" t="n">
+        <v>130.0453580729167</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>15:05:55</t>
+        </is>
+      </c>
+      <c r="C453" t="n">
+        <v>137.5343587239583</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>15:10:57</t>
+        </is>
+      </c>
+      <c r="C454" t="n">
+        <v>135.0652604166667</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>15:15:59</t>
+        </is>
+      </c>
+      <c r="C455" t="n">
+        <v>130.8493001302083</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>15:21:00</t>
+        </is>
+      </c>
+      <c r="C456" t="n">
+        <v>137.4151236979167</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>15:26:02</t>
+        </is>
+      </c>
+      <c r="C457" t="n">
+        <v>133.792978515625</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>15:31:04</t>
+        </is>
+      </c>
+      <c r="C458" t="n">
+        <v>136.258466796875</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>15:36:06</t>
+        </is>
+      </c>
+      <c r="C459" t="n">
+        <v>133.409970703125</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>15:41:07</t>
+        </is>
+      </c>
+      <c r="C460" t="n">
+        <v>143.51677734375</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>15:46:09</t>
+        </is>
+      </c>
+      <c r="C461" t="n">
+        <v>139.8904264322917</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>15:51:11</t>
+        </is>
+      </c>
+      <c r="C462" t="n">
+        <v>143.4560709635417</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>15:56:13</t>
+        </is>
+      </c>
+      <c r="C463" t="n">
+        <v>137.805859375</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>16:01:14</t>
+        </is>
+      </c>
+      <c r="C464" t="n">
+        <v>138.4499251302083</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>16:06:16</t>
+        </is>
+      </c>
+      <c r="C465" t="n">
+        <v>137.4200618489583</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>16:11:18</t>
+        </is>
+      </c>
+      <c r="C466" t="n">
+        <v>136.8153157552083</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>16:16:20</t>
+        </is>
+      </c>
+      <c r="C467" t="n">
+        <v>138.0043522135417</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>16:21:21</t>
+        </is>
+      </c>
+      <c r="C468" t="n">
+        <v>138.714990234375</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>16:26:23</t>
+        </is>
+      </c>
+      <c r="C469" t="n">
+        <v>136.7567122395833</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>16:31:25</t>
+        </is>
+      </c>
+      <c r="C470" t="n">
+        <v>136.267421875</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>16:36:27</t>
+        </is>
+      </c>
+      <c r="C471" t="n">
+        <v>139.8095963541667</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>16:41:28</t>
+        </is>
+      </c>
+      <c r="C472" t="n">
+        <v>137.1454069010417</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>16:46:30</t>
+        </is>
+      </c>
+      <c r="C473" t="n">
+        <v>139.2301432291667</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>16:51:32</t>
+        </is>
+      </c>
+      <c r="C474" t="n">
+        <v>139.5227734375</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>16:56:34</t>
+        </is>
+      </c>
+      <c r="C475" t="n">
+        <v>138.1906510416667</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>17:01:35</t>
+        </is>
+      </c>
+      <c r="C476" t="n">
+        <v>134.8977083333333</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>17:06:37</t>
+        </is>
+      </c>
+      <c r="C477" t="n">
+        <v>138.9856087239583</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>17:11:39</t>
+        </is>
+      </c>
+      <c r="C478" t="n">
+        <v>144.0987109375</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>17:16:41</t>
+        </is>
+      </c>
+      <c r="C479" t="n">
+        <v>143.1745345052083</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>17:21:42</t>
+        </is>
+      </c>
+      <c r="C480" t="n">
+        <v>130.290390625</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>17:26:44</t>
+        </is>
+      </c>
+      <c r="C481" t="n">
+        <v>121.5189420572917</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>17:31:46</t>
+        </is>
+      </c>
+      <c r="C482" t="n">
+        <v>135.337119140625</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>17:36:48</t>
+        </is>
+      </c>
+      <c r="C483" t="n">
+        <v>134.211044921875</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>17:41:49</t>
+        </is>
+      </c>
+      <c r="C484" t="n">
+        <v>136.11205078125</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>17:46:51</t>
+        </is>
+      </c>
+      <c r="C485" t="n">
+        <v>146.3803190104167</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>17:51:53</t>
+        </is>
+      </c>
+      <c r="C486" t="n">
+        <v>138.094609375</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>17:56:55</t>
+        </is>
+      </c>
+      <c r="C487" t="n">
+        <v>144.247734375</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>18:01:56</t>
+        </is>
+      </c>
+      <c r="C488" t="n">
+        <v>140.0988151041667</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>18:06:58</t>
+        </is>
+      </c>
+      <c r="C489" t="n">
+        <v>145.479248046875</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>18:12:00</t>
+        </is>
+      </c>
+      <c r="C490" t="n">
+        <v>135.547255859375</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>18:17:02</t>
+        </is>
+      </c>
+      <c r="C491" t="n">
+        <v>135.721796875</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>18:22:03</t>
+        </is>
+      </c>
+      <c r="C492" t="n">
+        <v>138.1482779947917</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>18:27:05</t>
+        </is>
+      </c>
+      <c r="C493" t="n">
+        <v>141.590595703125</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>18:32:07</t>
+        </is>
+      </c>
+      <c r="C494" t="n">
+        <v>138.6776139322917</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>18:37:09</t>
+        </is>
+      </c>
+      <c r="C495" t="n">
+        <v>137.8297884114583</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>18:42:10</t>
+        </is>
+      </c>
+      <c r="C496" t="n">
+        <v>136.9881477864583</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>18:47:12</t>
+        </is>
+      </c>
+      <c r="C497" t="n">
+        <v>136.4314192708333</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>18:52:14</t>
+        </is>
+      </c>
+      <c r="C498" t="n">
+        <v>140.4027571614583</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>18:57:16</t>
+        </is>
+      </c>
+      <c r="C499" t="n">
+        <v>139.1669986979167</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>19:02:17</t>
+        </is>
+      </c>
+      <c r="C500" t="n">
+        <v>135.761376953125</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>19:07:19</t>
+        </is>
+      </c>
+      <c r="C501" t="n">
+        <v>137.6480143229167</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>19:12:21</t>
+        </is>
+      </c>
+      <c r="C502" t="n">
+        <v>137.3805924479167</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>19:17:23</t>
+        </is>
+      </c>
+      <c r="C503" t="n">
+        <v>142.4452864583333</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>19:22:24</t>
+        </is>
+      </c>
+      <c r="C504" t="n">
+        <v>138.2160384114583</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>19:27:26</t>
+        </is>
+      </c>
+      <c r="C505" t="n">
+        <v>149.2239127604167</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>19:32:28</t>
+        </is>
+      </c>
+      <c r="C506" t="n">
+        <v>149.291015625</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>19:37:30</t>
+        </is>
+      </c>
+      <c r="C507" t="n">
+        <v>148.1313802083333</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>19:42:31</t>
+        </is>
+      </c>
+      <c r="C508" t="n">
+        <v>162.354345703125</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>19:47:33</t>
+        </is>
+      </c>
+      <c r="C509" t="n">
+        <v>162.537666015625</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>19:52:35</t>
+        </is>
+      </c>
+      <c r="C510" t="n">
+        <v>148.938193359375</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>19:57:37</t>
+        </is>
+      </c>
+      <c r="C511" t="n">
+        <v>147.1900618489583</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>20:02:39</t>
+        </is>
+      </c>
+      <c r="C512" t="n">
+        <v>148.00919921875</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>20:07:40</t>
+        </is>
+      </c>
+      <c r="C513" t="n">
+        <v>146.4895833333333</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>20:12:42</t>
+        </is>
+      </c>
+      <c r="C514" t="n">
+        <v>149.2279069010417</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>20:17:44</t>
+        </is>
+      </c>
+      <c r="C515" t="n">
+        <v>150.6321842447917</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>20:22:46</t>
+        </is>
+      </c>
+      <c r="C516" t="n">
+        <v>151.6031184895833</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>20:27:48</t>
+        </is>
+      </c>
+      <c r="C517" t="n">
+        <v>149.560546875</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>20:32:49</t>
+        </is>
+      </c>
+      <c r="C518" t="n">
+        <v>151.5112076822917</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>19/05/2021</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>20:37:51</t>
+        </is>
+      </c>
+      <c r="C519" t="n">
+        <v>184.8180729166667</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>09:17:15</t>
+        </is>
+      </c>
+      <c r="C520" t="n">
+        <v>254.583818359375</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>09:22:17</t>
+        </is>
+      </c>
+      <c r="C521" t="n">
+        <v>129.361904296875</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>09:27:19</t>
+        </is>
+      </c>
+      <c r="C522" t="n">
+        <v>123.8618522135417</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>09:32:21</t>
+        </is>
+      </c>
+      <c r="C523" t="n">
+        <v>136.797333984375</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>09:37:23</t>
+        </is>
+      </c>
+      <c r="C524" t="n">
+        <v>139.1403580729167</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>09:42:25</t>
+        </is>
+      </c>
+      <c r="C525" t="n">
+        <v>142.50396484375</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>09:47:26</t>
+        </is>
+      </c>
+      <c r="C526" t="n">
+        <v>131.6954459635417</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>09:52:28</t>
+        </is>
+      </c>
+      <c r="C527" t="n">
+        <v>133.4595963541667</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>09:57:30</t>
+        </is>
+      </c>
+      <c r="C528" t="n">
+        <v>141.536474609375</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>10:02:32</t>
+        </is>
+      </c>
+      <c r="C529" t="n">
+        <v>139.831494140625</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>10:07:34</t>
+        </is>
+      </c>
+      <c r="C530" t="n">
+        <v>130.4351009114583</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>10:12:35</t>
+        </is>
+      </c>
+      <c r="C531" t="n">
+        <v>134.0628287760417</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>10:17:37</t>
+        </is>
+      </c>
+      <c r="C532" t="n">
+        <v>137.9005598958333</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>10:22:39</t>
+        </is>
+      </c>
+      <c r="C533" t="n">
+        <v>143.75982421875</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>10:27:41</t>
+        </is>
+      </c>
+      <c r="C534" t="n">
+        <v>152.1946647135417</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>10:32:42</t>
+        </is>
+      </c>
+      <c r="C535" t="n">
+        <v>147.6306510416667</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>10:37:44</t>
+        </is>
+      </c>
+      <c r="C536" t="n">
+        <v>155.359638671875</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>10:42:46</t>
+        </is>
+      </c>
+      <c r="C537" t="n">
+        <v>153.1851334635417</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>10:47:48</t>
+        </is>
+      </c>
+      <c r="C538" t="n">
+        <v>159.256220703125</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>10:52:50</t>
+        </is>
+      </c>
+      <c r="C539" t="n">
+        <v>156.2568196614583</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>10:57:51</t>
+        </is>
+      </c>
+      <c r="C540" t="n">
+        <v>128.7165625</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>11:02:53</t>
+        </is>
+      </c>
+      <c r="C541" t="n">
+        <v>172.5528873697917</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>11:07:55</t>
+        </is>
+      </c>
+      <c r="C542" t="n">
+        <v>183.1571744791667</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>11:12:57</t>
+        </is>
+      </c>
+      <c r="C543" t="n">
+        <v>157.8234375</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>11:17:59</t>
+        </is>
+      </c>
+      <c r="C544" t="n">
+        <v>155.370341796875</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>11:23:00</t>
+        </is>
+      </c>
+      <c r="C545" t="n">
+        <v>140.344521484375</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>11:28:02</t>
+        </is>
+      </c>
+      <c r="C546" t="n">
+        <v>174.9088639322917</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>11:33:04</t>
+        </is>
+      </c>
+      <c r="C547" t="n">
+        <v>126.8839225260417</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>11:38:06</t>
+        </is>
+      </c>
+      <c r="C548" t="n">
+        <v>125.793828125</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>11:43:07</t>
+        </is>
+      </c>
+      <c r="C549" t="n">
+        <v>121.7528450520833</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>11:48:09</t>
+        </is>
+      </c>
+      <c r="C550" t="n">
+        <v>138.6595735677083</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>11:53:11</t>
+        </is>
+      </c>
+      <c r="C551" t="n">
+        <v>146.5707291666667</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>11:58:13</t>
+        </is>
+      </c>
+      <c r="C552" t="n">
+        <v>134.7194401041667</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>12:03:14</t>
+        </is>
+      </c>
+      <c r="C553" t="n">
+        <v>141.718544921875</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>12:08:16</t>
+        </is>
+      </c>
+      <c r="C554" t="n">
+        <v>130.9188704427083</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>12:13:18</t>
+        </is>
+      </c>
+      <c r="C555" t="n">
+        <v>132.01998046875</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>12:18:20</t>
+        </is>
+      </c>
+      <c r="C556" t="n">
+        <v>131.9789973958333</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>12:23:22</t>
+        </is>
+      </c>
+      <c r="C557" t="n">
+        <v>166.532734375</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>12:28:23</t>
+        </is>
+      </c>
+      <c r="C558" t="n">
+        <v>147.512138671875</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>12:33:25</t>
+        </is>
+      </c>
+      <c r="C559" t="n">
+        <v>138.461591796875</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>12:38:27</t>
+        </is>
+      </c>
+      <c r="C560" t="n">
+        <v>133.1756901041667</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>12:43:29</t>
+        </is>
+      </c>
+      <c r="C561" t="n">
+        <v>143.509814453125</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>12:48:31</t>
+        </is>
+      </c>
+      <c r="C562" t="n">
+        <v>112.5834830729167</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>12:53:32</t>
+        </is>
+      </c>
+      <c r="C563" t="n">
+        <v>122.7997688802083</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>12:58:34</t>
+        </is>
+      </c>
+      <c r="C564" t="n">
+        <v>133.5556217447917</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>13:03:36</t>
+        </is>
+      </c>
+      <c r="C565" t="n">
+        <v>142.0583365885417</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>13:08:38</t>
+        </is>
+      </c>
+      <c r="C566" t="n">
+        <v>128.3061751302083</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>13:13:39</t>
+        </is>
+      </c>
+      <c r="C567" t="n">
+        <v>142.9814583333333</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>13:18:41</t>
+        </is>
+      </c>
+      <c r="C568" t="n">
+        <v>146.941318359375</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>13:23:43</t>
+        </is>
+      </c>
+      <c r="C569" t="n">
+        <v>139.8290755208333</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>13:28:45</t>
+        </is>
+      </c>
+      <c r="C570" t="n">
+        <v>125.7401627604167</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>13:33:46</t>
+        </is>
+      </c>
+      <c r="C571" t="n">
+        <v>129.9303287760417</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>13:38:48</t>
+        </is>
+      </c>
+      <c r="C572" t="n">
+        <v>127.0951497395833</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>13:43:50</t>
+        </is>
+      </c>
+      <c r="C573" t="n">
+        <v>134.4144889322917</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>13:48:52</t>
+        </is>
+      </c>
+      <c r="C574" t="n">
+        <v>142.3938802083333</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>13:53:54</t>
+        </is>
+      </c>
+      <c r="C575" t="n">
+        <v>132.1414029947917</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>13:58:55</t>
+        </is>
+      </c>
+      <c r="C576" t="n">
+        <v>135.4532975260417</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>14:03:57</t>
+        </is>
+      </c>
+      <c r="C577" t="n">
+        <v>155.3584993489583</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>14:08:59</t>
+        </is>
+      </c>
+      <c r="C578" t="n">
+        <v>143.18853515625</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>14:14:01</t>
+        </is>
+      </c>
+      <c r="C579" t="n">
+        <v>128.617490234375</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>14:19:02</t>
+        </is>
+      </c>
+      <c r="C580" t="n">
+        <v>132.0541276041667</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>14:24:04</t>
+        </is>
+      </c>
+      <c r="C581" t="n">
+        <v>155.7586328125</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>14:29:06</t>
+        </is>
+      </c>
+      <c r="C582" t="n">
+        <v>143.1117578125</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>14:34:08</t>
+        </is>
+      </c>
+      <c r="C583" t="n">
+        <v>140.0069368489583</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>14:39:10</t>
+        </is>
+      </c>
+      <c r="C584" t="n">
+        <v>144.0489485677083</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>14:44:11</t>
+        </is>
+      </c>
+      <c r="C585" t="n">
+        <v>162.5185546875</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>14:49:13</t>
+        </is>
+      </c>
+      <c r="C586" t="n">
+        <v>158.87265625</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>14:54:15</t>
+        </is>
+      </c>
+      <c r="C587" t="n">
+        <v>161.7353092447917</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>14:59:17</t>
+        </is>
+      </c>
+      <c r="C588" t="n">
+        <v>161.188427734375</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>15:04:19</t>
+        </is>
+      </c>
+      <c r="C589" t="n">
+        <v>166.1883626302083</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>15:09:20</t>
+        </is>
+      </c>
+      <c r="C590" t="n">
+        <v>142.8330305989583</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>15:14:22</t>
+        </is>
+      </c>
+      <c r="C591" t="n">
+        <v>142.2470670572917</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>15:19:24</t>
+        </is>
+      </c>
+      <c r="C592" t="n">
+        <v>142.1611979166667</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>15:24:26</t>
+        </is>
+      </c>
+      <c r="C593" t="n">
+        <v>163.9353776041667</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>15:29:28</t>
+        </is>
+      </c>
+      <c r="C594" t="n">
+        <v>159.7238997395833</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>15:34:29</t>
+        </is>
+      </c>
+      <c r="C595" t="n">
+        <v>136.892685546875</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>15:39:31</t>
+        </is>
+      </c>
+      <c r="C596" t="n">
+        <v>158.2774674479167</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>15:44:33</t>
+        </is>
+      </c>
+      <c r="C597" t="n">
+        <v>164.8744694010417</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>15:49:35</t>
+        </is>
+      </c>
+      <c r="C598" t="n">
+        <v>172.7963509114583</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>15:54:36</t>
+        </is>
+      </c>
+      <c r="C599" t="n">
+        <v>161.092529296875</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>15:59:38</t>
+        </is>
+      </c>
+      <c r="C600" t="n">
+        <v>162.6386783854167</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>16:04:40</t>
+        </is>
+      </c>
+      <c r="C601" t="n">
+        <v>159.79845703125</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>16:09:42</t>
+        </is>
+      </c>
+      <c r="C602" t="n">
+        <v>148.6433919270833</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>16:14:43</t>
+        </is>
+      </c>
+      <c r="C603" t="n">
+        <v>168.5112109375</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>16:19:45</t>
+        </is>
+      </c>
+      <c r="C604" t="n">
+        <v>168.755205078125</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>16:24:47</t>
+        </is>
+      </c>
+      <c r="C605" t="n">
+        <v>173.2707845052083</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>16:29:49</t>
+        </is>
+      </c>
+      <c r="C606" t="n">
+        <v>142.8249739583333</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>16:34:51</t>
+        </is>
+      </c>
+      <c r="C607" t="n">
+        <v>138.2492447916667</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>16:39:52</t>
+        </is>
+      </c>
+      <c r="C608" t="n">
+        <v>165.3488802083333</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>16:44:54</t>
+        </is>
+      </c>
+      <c r="C609" t="n">
+        <v>163.4703580729167</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>16:49:56</t>
+        </is>
+      </c>
+      <c r="C610" t="n">
+        <v>143.479140625</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>16:54:58</t>
+        </is>
+      </c>
+      <c r="C611" t="n">
+        <v>143.3582259114583</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="C612" t="n">
+        <v>138.134677734375</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>17:05:01</t>
+        </is>
+      </c>
+      <c r="C613" t="n">
+        <v>144.4823828125</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>17:10:03</t>
+        </is>
+      </c>
+      <c r="C614" t="n">
+        <v>146.9888932291667</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>17:15:05</t>
+        </is>
+      </c>
+      <c r="C615" t="n">
+        <v>154.383818359375</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>17:20:07</t>
+        </is>
+      </c>
+      <c r="C616" t="n">
+        <v>169.2739127604167</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>17:25:08</t>
+        </is>
+      </c>
+      <c r="C617" t="n">
+        <v>167.64306640625</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>17:30:10</t>
+        </is>
+      </c>
+      <c r="C618" t="n">
+        <v>158.8996321614583</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>17:35:12</t>
+        </is>
+      </c>
+      <c r="C619" t="n">
+        <v>167.726396484375</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>17:40:14</t>
+        </is>
+      </c>
+      <c r="C620" t="n">
+        <v>150.7335807291667</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>17:45:16</t>
+        </is>
+      </c>
+      <c r="C621" t="n">
+        <v>151.20662109375</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>17:50:17</t>
+        </is>
+      </c>
+      <c r="C622" t="n">
+        <v>146.7593880208333</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>17:55:19</t>
+        </is>
+      </c>
+      <c r="C623" t="n">
+        <v>168.2447688802083</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>18:00:21</t>
+        </is>
+      </c>
+      <c r="C624" t="n">
+        <v>152.617724609375</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>18:05:23</t>
+        </is>
+      </c>
+      <c r="C625" t="n">
+        <v>159.1223079427083</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>18:10:25</t>
+        </is>
+      </c>
+      <c r="C626" t="n">
+        <v>169.4424544270833</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>18:15:26</t>
+        </is>
+      </c>
+      <c r="C627" t="n">
+        <v>173.0524772135417</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>18:20:28</t>
+        </is>
+      </c>
+      <c r="C628" t="n">
+        <v>172.1975162760417</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>18:25:30</t>
+        </is>
+      </c>
+      <c r="C629" t="n">
+        <v>173.2378971354167</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>18:30:32</t>
+        </is>
+      </c>
+      <c r="C630" t="n">
+        <v>172.9688932291667</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>18:35:34</t>
+        </is>
+      </c>
+      <c r="C631" t="n">
+        <v>161.39162109375</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>18:40:36</t>
+        </is>
+      </c>
+      <c r="C632" t="n">
+        <v>164.492509765625</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>18:45:37</t>
+        </is>
+      </c>
+      <c r="C633" t="n">
+        <v>151.566171875</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>18:50:39</t>
+        </is>
+      </c>
+      <c r="C634" t="n">
+        <v>159.23333984375</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>18:55:41</t>
+        </is>
+      </c>
+      <c r="C635" t="n">
+        <v>163.0853548177083</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>19:00:43</t>
+        </is>
+      </c>
+      <c r="C636" t="n">
+        <v>142.7983268229167</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>19:05:45</t>
+        </is>
+      </c>
+      <c r="C637" t="n">
+        <v>144.6293001302083</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>19:10:47</t>
+        </is>
+      </c>
+      <c r="C638" t="n">
+        <v>143.6128645833333</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>19:15:48</t>
+        </is>
+      </c>
+      <c r="C639" t="n">
+        <v>159.7473274739583</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>19:20:50</t>
+        </is>
+      </c>
+      <c r="C640" t="n">
+        <v>161.0499641927083</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>19:25:52</t>
+        </is>
+      </c>
+      <c r="C641" t="n">
+        <v>158.1782259114583</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>19:30:54</t>
+        </is>
+      </c>
+      <c r="C642" t="n">
+        <v>150.4078092447917</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>19:35:56</t>
+        </is>
+      </c>
+      <c r="C643" t="n">
+        <v>139.69478515625</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>19:40:58</t>
+        </is>
+      </c>
+      <c r="C644" t="n">
+        <v>141.9007096354167</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>19:45:59</t>
+        </is>
+      </c>
+      <c r="C645" t="n">
+        <v>143.7221126302083</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>19:51:01</t>
+        </is>
+      </c>
+      <c r="C646" t="n">
+        <v>132.2175553385417</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>19:56:03</t>
+        </is>
+      </c>
+      <c r="C647" t="n">
+        <v>137.9023014322917</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>20:01:05</t>
+        </is>
+      </c>
+      <c r="C648" t="n">
+        <v>136.4770149739583</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>20:06:07</t>
+        </is>
+      </c>
+      <c r="C649" t="n">
+        <v>133.2631640625</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>20:11:09</t>
+        </is>
+      </c>
+      <c r="C650" t="n">
+        <v>126.080263671875</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>20:16:10</t>
+        </is>
+      </c>
+      <c r="C651" t="n">
+        <v>121.8728873697917</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>09:44:18</t>
+        </is>
+      </c>
+      <c r="C652" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>09:49:20</t>
+        </is>
+      </c>
+      <c r="C653" t="n">
+        <v>156.348681640625</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>09:54:21</t>
+        </is>
+      </c>
+      <c r="C654" t="n">
+        <v>146.4647916666667</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>09:59:23</t>
+        </is>
+      </c>
+      <c r="C655" t="n">
+        <v>152.148984375</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>10:04:25</t>
+        </is>
+      </c>
+      <c r="C656" t="n">
+        <v>147.6004524739583</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>10:09:27</t>
+        </is>
+      </c>
+      <c r="C657" t="n">
+        <v>145.76578125</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>10:14:29</t>
+        </is>
+      </c>
+      <c r="C658" t="n">
+        <v>152.6300325520833</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>10:19:31</t>
+        </is>
+      </c>
+      <c r="C659" t="n">
+        <v>155.1846809895833</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>10:24:34</t>
+        </is>
+      </c>
+      <c r="C660" t="n">
+        <v>150.3285091145833</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>10:29:36</t>
+        </is>
+      </c>
+      <c r="C661" t="n">
+        <v>141.8772981770833</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>10:34:38</t>
+        </is>
+      </c>
+      <c r="C662" t="n">
+        <v>169.57615234375</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>10:39:40</t>
+        </is>
+      </c>
+      <c r="C663" t="n">
+        <v>158.0433040364583</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>10:44:42</t>
+        </is>
+      </c>
+      <c r="C664" t="n">
+        <v>152.14072265625</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>10:49:44</t>
+        </is>
+      </c>
+      <c r="C665" t="n">
+        <v>157.0066829427083</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>10:54:46</t>
+        </is>
+      </c>
+      <c r="C666" t="n">
+        <v>155.0094921875</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>10:59:48</t>
+        </is>
+      </c>
+      <c r="C667" t="n">
+        <v>159.2513606770833</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>11:04:50</t>
+        </is>
+      </c>
+      <c r="C668" t="n">
+        <v>149.429267578125</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>11:09:52</t>
+        </is>
+      </c>
+      <c r="C669" t="n">
+        <v>153.4830859375</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>11:14:54</t>
+        </is>
+      </c>
+      <c r="C670" t="n">
+        <v>160.531298828125</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>11:19:57</t>
+        </is>
+      </c>
+      <c r="C671" t="n">
+        <v>173.441103515625</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>11:24:59</t>
+        </is>
+      </c>
+      <c r="C672" t="n">
+        <v>168.255810546875</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>11:30:01</t>
+        </is>
+      </c>
+      <c r="C673" t="n">
+        <v>173.414609375</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>11:35:03</t>
+        </is>
+      </c>
+      <c r="C674" t="n">
+        <v>153.932763671875</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>11:40:05</t>
+        </is>
+      </c>
+      <c r="C675" t="n">
+        <v>147.4429231770833</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>11:45:07</t>
+        </is>
+      </c>
+      <c r="C676" t="n">
+        <v>154.2554947916667</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>11:50:09</t>
+        </is>
+      </c>
+      <c r="C677" t="n">
+        <v>159.827587890625</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>11:55:11</t>
+        </is>
+      </c>
+      <c r="C678" t="n">
+        <v>119.9659342447917</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>12:00:13</t>
+        </is>
+      </c>
+      <c r="C679" t="n">
+        <v>134.3114029947917</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>12:05:15</t>
+        </is>
+      </c>
+      <c r="C680" t="n">
+        <v>146.389765625</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>12:10:18</t>
+        </is>
+      </c>
+      <c r="C681" t="n">
+        <v>145.8733756510417</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>12:15:20</t>
+        </is>
+      </c>
+      <c r="C682" t="n">
+        <v>147.61048828125</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>12:20:22</t>
+        </is>
+      </c>
+      <c r="C683" t="n">
+        <v>118.5993196614583</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>12:25:24</t>
+        </is>
+      </c>
+      <c r="C684" t="n">
+        <v>119.9913509114583</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>12:30:26</t>
+        </is>
+      </c>
+      <c r="C685" t="n">
+        <v>148.4622526041667</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>12:35:28</t>
+        </is>
+      </c>
+      <c r="C686" t="n">
+        <v>139.2175358072917</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>12:40:30</t>
+        </is>
+      </c>
+      <c r="C687" t="n">
+        <v>136.3905533854167</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>12:45:32</t>
+        </is>
+      </c>
+      <c r="C688" t="n">
+        <v>134.7088541666667</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>12:50:33</t>
+        </is>
+      </c>
+      <c r="C689" t="n">
+        <v>131.0927180989583</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t>12:55:35</t>
+        </is>
+      </c>
+      <c r="C690" t="n">
+        <v>118.897099609375</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>13:00:37</t>
+        </is>
+      </c>
+      <c r="C691" t="n">
+        <v>124.6536393229167</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>13:05:39</t>
+        </is>
+      </c>
+      <c r="C692" t="n">
+        <v>130.8730143229167</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>13:10:41</t>
+        </is>
+      </c>
+      <c r="C693" t="n">
+        <v>130.5124934895833</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>13:15:43</t>
+        </is>
+      </c>
+      <c r="C694" t="n">
+        <v>136.5231477864583</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>13:20:45</t>
+        </is>
+      </c>
+      <c r="C695" t="n">
+        <v>142.5622981770833</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>13:25:46</t>
+        </is>
+      </c>
+      <c r="C696" t="n">
+        <v>136.2653938802083</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>13:30:48</t>
+        </is>
+      </c>
+      <c r="C697" t="n">
+        <v>132.5841829427083</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t>13:35:50</t>
+        </is>
+      </c>
+      <c r="C698" t="n">
+        <v>129.4762467447917</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t>13:40:52</t>
+        </is>
+      </c>
+      <c r="C699" t="n">
+        <v>140.115703125</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>13:45:54</t>
+        </is>
+      </c>
+      <c r="C700" t="n">
+        <v>147.5792936197917</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t>13:50:56</t>
+        </is>
+      </c>
+      <c r="C701" t="n">
+        <v>147.0878483072917</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t>13:55:58</t>
+        </is>
+      </c>
+      <c r="C702" t="n">
+        <v>146.8036881510417</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>14:00:59</t>
+        </is>
+      </c>
+      <c r="C703" t="n">
+        <v>142.7934733072917</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t>14:06:01</t>
+        </is>
+      </c>
+      <c r="C704" t="n">
+        <v>137.5782942708333</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B705" t="inlineStr">
+        <is>
+          <t>14:11:03</t>
+        </is>
+      </c>
+      <c r="C705" t="n">
+        <v>134.8548958333333</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B706" t="inlineStr">
+        <is>
+          <t>14:16:05</t>
+        </is>
+      </c>
+      <c r="C706" t="n">
+        <v>138.4231868489583</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>14:21:07</t>
+        </is>
+      </c>
+      <c r="C707" t="n">
+        <v>137.0278938802083</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t>14:26:09</t>
+        </is>
+      </c>
+      <c r="C708" t="n">
+        <v>146.9706087239583</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>14:31:11</t>
+        </is>
+      </c>
+      <c r="C709" t="n">
+        <v>146.9248990885417</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>14:36:12</t>
+        </is>
+      </c>
+      <c r="C710" t="n">
+        <v>152.3898763020833</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>14:41:14</t>
+        </is>
+      </c>
+      <c r="C711" t="n">
+        <v>150.9196321614583</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>14:46:16</t>
+        </is>
+      </c>
+      <c r="C712" t="n">
+        <v>150.1537141927083</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B713" t="inlineStr">
+        <is>
+          <t>14:51:18</t>
+        </is>
+      </c>
+      <c r="C713" t="n">
+        <v>151.7516178385417</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>14:56:20</t>
+        </is>
+      </c>
+      <c r="C714" t="n">
+        <v>151.8432194010417</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>15:01:22</t>
+        </is>
+      </c>
+      <c r="C715" t="n">
+        <v>152.3556868489583</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B716" t="inlineStr">
+        <is>
+          <t>15:06:24</t>
+        </is>
+      </c>
+      <c r="C716" t="n">
+        <v>145.808564453125</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>15:11:26</t>
+        </is>
+      </c>
+      <c r="C717" t="n">
+        <v>144.9243294270833</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>15:16:27</t>
+        </is>
+      </c>
+      <c r="C718" t="n">
+        <v>148.3360872395833</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B719" t="inlineStr">
+        <is>
+          <t>15:21:30</t>
+        </is>
+      </c>
+      <c r="C719" t="n">
+        <v>150.4772330729167</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B720" t="inlineStr">
+        <is>
+          <t>15:26:32</t>
+        </is>
+      </c>
+      <c r="C720" t="n">
+        <v>143.1740169270833</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B721" t="inlineStr">
+        <is>
+          <t>15:31:33</t>
+        </is>
+      </c>
+      <c r="C721" t="n">
+        <v>134.7467936197917</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>15:36:35</t>
+        </is>
+      </c>
+      <c r="C722" t="n">
+        <v>138.2039453125</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>15:41:37</t>
+        </is>
+      </c>
+      <c r="C723" t="n">
+        <v>140.1601106770833</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t>15:46:39</t>
+        </is>
+      </c>
+      <c r="C724" t="n">
+        <v>145.0785123697917</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B725" t="inlineStr">
+        <is>
+          <t>15:51:41</t>
+        </is>
+      </c>
+      <c r="C725" t="n">
+        <v>147.20388671875</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B726" t="inlineStr">
+        <is>
+          <t>15:56:43</t>
+        </is>
+      </c>
+      <c r="C726" t="n">
+        <v>143.9566276041667</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B727" t="inlineStr">
+        <is>
+          <t>16:01:45</t>
+        </is>
+      </c>
+      <c r="C727" t="n">
+        <v>136.8428059895833</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B728" t="inlineStr">
+        <is>
+          <t>16:06:47</t>
+        </is>
+      </c>
+      <c r="C728" t="n">
+        <v>135.736416015625</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B729" t="inlineStr">
+        <is>
+          <t>16:11:48</t>
+        </is>
+      </c>
+      <c r="C729" t="n">
+        <v>135.2245833333333</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B730" t="inlineStr">
+        <is>
+          <t>16:16:50</t>
+        </is>
+      </c>
+      <c r="C730" t="n">
+        <v>138.36912109375</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B731" t="inlineStr">
+        <is>
+          <t>16:21:52</t>
+        </is>
+      </c>
+      <c r="C731" t="n">
+        <v>143.7816861979167</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B732" t="inlineStr">
+        <is>
+          <t>16:26:54</t>
+        </is>
+      </c>
+      <c r="C732" t="n">
+        <v>145.5360514322917</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B733" t="inlineStr">
+        <is>
+          <t>16:31:56</t>
+        </is>
+      </c>
+      <c r="C733" t="n">
+        <v>145.7680078125</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B734" t="inlineStr">
+        <is>
+          <t>16:36:58</t>
+        </is>
+      </c>
+      <c r="C734" t="n">
+        <v>146.7274479166667</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B735" t="inlineStr">
+        <is>
+          <t>16:42:00</t>
+        </is>
+      </c>
+      <c r="C735" t="n">
+        <v>138.57228515625</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B736" t="inlineStr">
+        <is>
+          <t>16:47:02</t>
+        </is>
+      </c>
+      <c r="C736" t="n">
+        <v>146.0019986979167</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B737" t="inlineStr">
+        <is>
+          <t>16:52:03</t>
+        </is>
+      </c>
+      <c r="C737" t="n">
+        <v>144.1547102864583</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B738" t="inlineStr">
+        <is>
+          <t>16:57:05</t>
+        </is>
+      </c>
+      <c r="C738" t="n">
+        <v>137.522744140625</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B739" t="inlineStr">
+        <is>
+          <t>17:02:07</t>
+        </is>
+      </c>
+      <c r="C739" t="n">
+        <v>139.485908203125</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B740" t="inlineStr">
+        <is>
+          <t>17:07:09</t>
+        </is>
+      </c>
+      <c r="C740" t="n">
+        <v>144.5634733072917</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B741" t="inlineStr">
+        <is>
+          <t>17:12:11</t>
+        </is>
+      </c>
+      <c r="C741" t="n">
+        <v>138.0787369791667</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B742" t="inlineStr">
+        <is>
+          <t>17:17:13</t>
+        </is>
+      </c>
+      <c r="C742" t="n">
+        <v>136.91736328125</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B743" t="inlineStr">
+        <is>
+          <t>17:22:15</t>
+        </is>
+      </c>
+      <c r="C743" t="n">
+        <v>138.65083984375</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B744" t="inlineStr">
+        <is>
+          <t>17:27:17</t>
+        </is>
+      </c>
+      <c r="C744" t="n">
+        <v>141.4216927083333</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B745" t="inlineStr">
+        <is>
+          <t>17:32:18</t>
+        </is>
+      </c>
+      <c r="C745" t="n">
+        <v>147.335419921875</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B746" t="inlineStr">
+        <is>
+          <t>17:37:20</t>
+        </is>
+      </c>
+      <c r="C746" t="n">
+        <v>145.530576171875</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B747" t="inlineStr">
+        <is>
+          <t>17:42:22</t>
+        </is>
+      </c>
+      <c r="C747" t="n">
+        <v>140.7086002604167</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B748" t="inlineStr">
+        <is>
+          <t>17:47:24</t>
+        </is>
+      </c>
+      <c r="C748" t="n">
+        <v>140.8436979166667</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B749" t="inlineStr">
+        <is>
+          <t>17:52:26</t>
+        </is>
+      </c>
+      <c r="C749" t="n">
+        <v>145.2013639322917</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B750" t="inlineStr">
+        <is>
+          <t>17:57:28</t>
+        </is>
+      </c>
+      <c r="C750" t="n">
+        <v>147.7956803385417</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B751" t="inlineStr">
+        <is>
+          <t>18:02:30</t>
+        </is>
+      </c>
+      <c r="C751" t="n">
+        <v>141.5959895833333</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B752" t="inlineStr">
+        <is>
+          <t>18:07:32</t>
+        </is>
+      </c>
+      <c r="C752" t="n">
+        <v>147.6280110677083</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B753" t="inlineStr">
+        <is>
+          <t>18:12:33</t>
+        </is>
+      </c>
+      <c r="C753" t="n">
+        <v>145.1832747395833</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B754" t="inlineStr">
+        <is>
+          <t>18:17:35</t>
+        </is>
+      </c>
+      <c r="C754" t="n">
+        <v>142.195380859375</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B755" t="inlineStr">
+        <is>
+          <t>18:22:37</t>
+        </is>
+      </c>
+      <c r="C755" t="n">
+        <v>150.2701985677083</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B756" t="inlineStr">
+        <is>
+          <t>18:27:39</t>
+        </is>
+      </c>
+      <c r="C756" t="n">
+        <v>139.9748404947917</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B757" t="inlineStr">
+        <is>
+          <t>18:32:41</t>
+        </is>
+      </c>
+      <c r="C757" t="n">
+        <v>147.62947265625</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B758" t="inlineStr">
+        <is>
+          <t>18:37:43</t>
+        </is>
+      </c>
+      <c r="C758" t="n">
+        <v>151.4138736979167</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B759" t="inlineStr">
+        <is>
+          <t>18:42:45</t>
+        </is>
+      </c>
+      <c r="C759" t="n">
+        <v>150.2047721354167</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B760" t="inlineStr">
+        <is>
+          <t>18:47:46</t>
+        </is>
+      </c>
+      <c r="C760" t="n">
+        <v>149.7002278645833</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B761" t="inlineStr">
+        <is>
+          <t>18:52:48</t>
+        </is>
+      </c>
+      <c r="C761" t="n">
+        <v>152.6098763020833</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B762" t="inlineStr">
+        <is>
+          <t>18:57:50</t>
+        </is>
+      </c>
+      <c r="C762" t="n">
+        <v>162.164951171875</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B763" t="inlineStr">
+        <is>
+          <t>19:02:52</t>
+        </is>
+      </c>
+      <c r="C763" t="n">
+        <v>151.5216341145833</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B764" t="inlineStr">
+        <is>
+          <t>19:07:54</t>
+        </is>
+      </c>
+      <c r="C764" t="n">
+        <v>160.7371126302083</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B765" t="inlineStr">
+        <is>
+          <t>19:12:56</t>
+        </is>
+      </c>
+      <c r="C765" t="n">
+        <v>152.2314876302083</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B766" t="inlineStr">
+        <is>
+          <t>19:17:58</t>
+        </is>
+      </c>
+      <c r="C766" t="n">
+        <v>160.9401139322917</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B767" t="inlineStr">
+        <is>
+          <t>19:23:00</t>
+        </is>
+      </c>
+      <c r="C767" t="n">
+        <v>161.8293196614583</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B768" t="inlineStr">
+        <is>
+          <t>19:28:02</t>
+        </is>
+      </c>
+      <c r="C768" t="n">
+        <v>168.91333984375</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B769" t="inlineStr">
+        <is>
+          <t>19:33:03</t>
+        </is>
+      </c>
+      <c r="C769" t="n">
+        <v>153.129345703125</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B770" t="inlineStr">
+        <is>
+          <t>19:38:05</t>
+        </is>
+      </c>
+      <c r="C770" t="n">
+        <v>159.591328125</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B771" t="inlineStr">
+        <is>
+          <t>19:43:07</t>
+        </is>
+      </c>
+      <c r="C771" t="n">
+        <v>168.8458984375</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B772" t="inlineStr">
+        <is>
+          <t>19:48:09</t>
+        </is>
+      </c>
+      <c r="C772" t="n">
+        <v>163.0788606770833</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B773" t="inlineStr">
+        <is>
+          <t>19:53:11</t>
+        </is>
+      </c>
+      <c r="C773" t="n">
+        <v>170.480244140625</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B774" t="inlineStr">
+        <is>
+          <t>19:58:13</t>
+        </is>
+      </c>
+      <c r="C774" t="n">
+        <v>168.5865787760417</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B775" t="inlineStr">
+        <is>
+          <t>20:03:15</t>
+        </is>
+      </c>
+      <c r="C775" t="n">
+        <v>170.257783203125</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B776" t="inlineStr">
+        <is>
+          <t>20:08:17</t>
+        </is>
+      </c>
+      <c r="C776" t="n">
+        <v>170.5346875</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B777" t="inlineStr">
+        <is>
+          <t>20:13:19</t>
+        </is>
+      </c>
+      <c r="C777" t="n">
+        <v>168.8403287760417</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B778" t="inlineStr">
+        <is>
+          <t>20:18:21</t>
+        </is>
+      </c>
+      <c r="C778" t="n">
+        <v>155.2683235677083</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B779" t="inlineStr">
+        <is>
+          <t>20:23:23</t>
+        </is>
+      </c>
+      <c r="C779" t="n">
+        <v>158.0760546875</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B780" t="inlineStr">
+        <is>
+          <t>20:28:24</t>
+        </is>
+      </c>
+      <c r="C780" t="n">
+        <v>190.298779296875</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B781" t="inlineStr">
+        <is>
+          <t>20:33:26</t>
+        </is>
+      </c>
+      <c r="C781" t="n">
+        <v>190.1091861979167</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B782" t="inlineStr">
+        <is>
+          <t>20:38:28</t>
+        </is>
+      </c>
+      <c r="C782" t="n">
+        <v>189.3435579427083</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B783" t="inlineStr">
+        <is>
+          <t>20:43:30</t>
+        </is>
+      </c>
+      <c r="C783" t="n">
+        <v>187.7999869791667</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B784" t="inlineStr">
+        <is>
+          <t>20:48:32</t>
+        </is>
+      </c>
+      <c r="C784" t="n">
+        <v>153.0540592447917</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B785" t="inlineStr">
+        <is>
+          <t>20:53:34</t>
+        </is>
+      </c>
+      <c r="C785" t="n">
+        <v>54.6072265625</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B786" t="inlineStr">
+        <is>
+          <t>20:58:36</t>
+        </is>
+      </c>
+      <c r="C786" t="n">
+        <v>43.525498046875</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B787" t="inlineStr">
+        <is>
+          <t>21:03:38</t>
+        </is>
+      </c>
+      <c r="C787" t="n">
+        <v>16.10630208333333</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B788" t="inlineStr">
+        <is>
+          <t>21:08:40</t>
+        </is>
+      </c>
+      <c r="C788" t="n">
+        <v>3.43908203125</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B789" t="inlineStr">
+        <is>
+          <t>21:13:42</t>
+        </is>
+      </c>
+      <c r="C789" t="n">
+        <v>1.481770833333333</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B790" t="inlineStr">
+        <is>
+          <t>21:18:44</t>
+        </is>
+      </c>
+      <c r="C790" t="n">
+        <v>0.7637076822916666</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B791" t="inlineStr">
+        <is>
+          <t>21:23:46</t>
+        </is>
+      </c>
+      <c r="C791" t="n">
+        <v>0.6489615885416666</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B792" t="inlineStr">
+        <is>
+          <t>21:28:48</t>
+        </is>
+      </c>
+      <c r="C792" t="n">
+        <v>0.6378059895833333</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B793" t="inlineStr">
+        <is>
+          <t>21:33:50</t>
+        </is>
+      </c>
+      <c r="C793" t="n">
+        <v>0.6692838541666667</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B794" t="inlineStr">
+        <is>
+          <t>21:38:52</t>
+        </is>
+      </c>
+      <c r="C794" t="n">
+        <v>0.4696907552083333</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B795" t="inlineStr">
+        <is>
+          <t>21:43:54</t>
+        </is>
+      </c>
+      <c r="C795" t="n">
+        <v>0.2985123697916667</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B796" t="inlineStr">
+        <is>
+          <t>21:48:56</t>
+        </is>
+      </c>
+      <c r="C796" t="n">
+        <v>0.2011653645833333</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B797" t="inlineStr">
+        <is>
+          <t>21:53:58</t>
+        </is>
+      </c>
+      <c r="C797" t="n">
+        <v>0.5763346354166666</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B798" t="inlineStr">
+        <is>
+          <t>21:59:00</t>
+        </is>
+      </c>
+      <c r="C798" t="n">
+        <v>0.6652408854166667</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B799" t="inlineStr">
+        <is>
+          <t>22:04:02</t>
+        </is>
+      </c>
+      <c r="C799" t="n">
+        <v>0.457919921875</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B800" t="inlineStr">
+        <is>
+          <t>22:09:04</t>
+        </is>
+      </c>
+      <c r="C800" t="n">
+        <v>0.272138671875</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B801" t="inlineStr">
+        <is>
+          <t>22:14:06</t>
+        </is>
+      </c>
+      <c r="C801" t="n">
+        <v>0.1738541666666667</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B802" t="inlineStr">
+        <is>
+          <t>22:19:08</t>
+        </is>
+      </c>
+      <c r="C802" t="n">
+        <v>0.3215657552083334</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B803" t="inlineStr">
+        <is>
+          <t>22:24:10</t>
+        </is>
+      </c>
+      <c r="C803" t="n">
+        <v>0.1645052083333333</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B804" t="inlineStr">
+        <is>
+          <t>22:29:12</t>
+        </is>
+      </c>
+      <c r="C804" t="n">
+        <v>0.2129817708333333</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B805" t="inlineStr">
+        <is>
+          <t>22:34:14</t>
+        </is>
+      </c>
+      <c r="C805" t="n">
+        <v>0.2163704427083333</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B806" t="inlineStr">
+        <is>
+          <t>22:39:16</t>
+        </is>
+      </c>
+      <c r="C806" t="n">
+        <v>0.2258626302083333</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B807" t="inlineStr">
+        <is>
+          <t>22:44:18</t>
+        </is>
+      </c>
+      <c r="C807" t="n">
+        <v>0.5069173177083334</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B808" t="inlineStr">
+        <is>
+          <t>22:49:20</t>
+        </is>
+      </c>
+      <c r="C808" t="n">
+        <v>0.2324446614583333</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="inlineStr">
+        <is>
+          <t>21/05/2021</t>
+        </is>
+      </c>
+      <c r="B809" t="inlineStr">
+        <is>
+          <t>22:54:22</t>
+        </is>
+      </c>
+      <c r="C809" t="n">
+        <v>4.270419921875</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B810" t="inlineStr">
+        <is>
+          <t>11:11:40</t>
+        </is>
+      </c>
+      <c r="C810" t="n">
+        <v>241.3310319010417</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B811" t="inlineStr">
+        <is>
+          <t>11:16:42</t>
+        </is>
+      </c>
+      <c r="C811" t="n">
+        <v>142.8175162760417</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B812" t="inlineStr">
+        <is>
+          <t>11:21:44</t>
+        </is>
+      </c>
+      <c r="C812" t="n">
+        <v>137.4156412760417</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B813" t="inlineStr">
+        <is>
+          <t>11:26:46</t>
+        </is>
+      </c>
+      <c r="C813" t="n">
+        <v>139.1875813802083</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B814" t="inlineStr">
+        <is>
+          <t>11:31:48</t>
+        </is>
+      </c>
+      <c r="C814" t="n">
+        <v>139.2182486979167</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B815" t="inlineStr">
+        <is>
+          <t>11:36:50</t>
+        </is>
+      </c>
+      <c r="C815" t="n">
+        <v>137.7105110677083</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B816" t="inlineStr">
+        <is>
+          <t>11:41:51</t>
+        </is>
+      </c>
+      <c r="C816" t="n">
+        <v>140.6686197916667</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B817" t="inlineStr">
+        <is>
+          <t>11:46:53</t>
+        </is>
+      </c>
+      <c r="C817" t="n">
+        <v>136.461142578125</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B818" t="inlineStr">
+        <is>
+          <t>11:51:55</t>
+        </is>
+      </c>
+      <c r="C818" t="n">
+        <v>138.458154296875</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B819" t="inlineStr">
+        <is>
+          <t>11:56:57</t>
+        </is>
+      </c>
+      <c r="C819" t="n">
+        <v>138.1542805989583</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B820" t="inlineStr">
+        <is>
+          <t>12:01:59</t>
+        </is>
+      </c>
+      <c r="C820" t="n">
+        <v>137.3128580729167</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B821" t="inlineStr">
+        <is>
+          <t>12:07:01</t>
+        </is>
+      </c>
+      <c r="C821" t="n">
+        <v>141.0456184895833</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B822" t="inlineStr">
+        <is>
+          <t>12:12:03</t>
+        </is>
+      </c>
+      <c r="C822" t="n">
+        <v>143.9266927083333</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B823" t="inlineStr">
+        <is>
+          <t>12:17:04</t>
+        </is>
+      </c>
+      <c r="C823" t="n">
+        <v>143.8282877604167</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B824" t="inlineStr">
+        <is>
+          <t>12:22:06</t>
+        </is>
+      </c>
+      <c r="C824" t="n">
+        <v>138.5144889322917</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B825" t="inlineStr">
+        <is>
+          <t>12:27:08</t>
+        </is>
+      </c>
+      <c r="C825" t="n">
+        <v>138.7721484375</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B826" t="inlineStr">
+        <is>
+          <t>12:32:10</t>
+        </is>
+      </c>
+      <c r="C826" t="n">
+        <v>147.1276692708333</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B827" t="inlineStr">
+        <is>
+          <t>12:37:12</t>
+        </is>
+      </c>
+      <c r="C827" t="n">
+        <v>140.6434309895833</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B828" t="inlineStr">
+        <is>
+          <t>12:42:13</t>
+        </is>
+      </c>
+      <c r="C828" t="n">
+        <v>138.6626497395833</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B829" t="inlineStr">
+        <is>
+          <t>12:47:15</t>
+        </is>
+      </c>
+      <c r="C829" t="n">
+        <v>139.017265625</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B830" t="inlineStr">
+        <is>
+          <t>12:52:17</t>
+        </is>
+      </c>
+      <c r="C830" t="n">
+        <v>145.9226985677083</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B831" t="inlineStr">
+        <is>
+          <t>12:57:19</t>
+        </is>
+      </c>
+      <c r="C831" t="n">
+        <v>138.8021256510417</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B832" t="inlineStr">
+        <is>
+          <t>13:02:21</t>
+        </is>
+      </c>
+      <c r="C832" t="n">
+        <v>144.1664029947917</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B833" t="inlineStr">
+        <is>
+          <t>13:07:23</t>
+        </is>
+      </c>
+      <c r="C833" t="n">
+        <v>144.9151399739583</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B834" t="inlineStr">
+        <is>
+          <t>13:12:24</t>
+        </is>
+      </c>
+      <c r="C834" t="n">
+        <v>140.3668587239583</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B835" t="inlineStr">
+        <is>
+          <t>13:17:26</t>
+        </is>
+      </c>
+      <c r="C835" t="n">
+        <v>138.9959798177083</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B836" t="inlineStr">
+        <is>
+          <t>13:22:28</t>
+        </is>
+      </c>
+      <c r="C836" t="n">
+        <v>132.039697265625</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B837" t="inlineStr">
+        <is>
+          <t>13:27:30</t>
+        </is>
+      </c>
+      <c r="C837" t="n">
+        <v>144.7322884114583</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B838" t="inlineStr">
+        <is>
+          <t>13:32:32</t>
+        </is>
+      </c>
+      <c r="C838" t="n">
+        <v>142.8281380208333</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B839" t="inlineStr">
+        <is>
+          <t>13:37:34</t>
+        </is>
+      </c>
+      <c r="C839" t="n">
+        <v>142.2173600260417</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B840" t="inlineStr">
+        <is>
+          <t>13:42:35</t>
+        </is>
+      </c>
+      <c r="C840" t="n">
+        <v>138.7363899739583</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B841" t="inlineStr">
+        <is>
+          <t>13:47:37</t>
+        </is>
+      </c>
+      <c r="C841" t="n">
+        <v>131.9493977864583</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B842" t="inlineStr">
+        <is>
+          <t>13:52:39</t>
+        </is>
+      </c>
+      <c r="C842" t="n">
+        <v>141.8250748697917</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B843" t="inlineStr">
+        <is>
+          <t>13:57:41</t>
+        </is>
+      </c>
+      <c r="C843" t="n">
+        <v>138.83220703125</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B844" t="inlineStr">
+        <is>
+          <t>14:02:43</t>
+        </is>
+      </c>
+      <c r="C844" t="n">
+        <v>132.2771028645833</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B845" t="inlineStr">
+        <is>
+          <t>14:07:44</t>
+        </is>
+      </c>
+      <c r="C845" t="n">
+        <v>136.42755859375</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B846" t="inlineStr">
+        <is>
+          <t>14:12:46</t>
+        </is>
+      </c>
+      <c r="C846" t="n">
+        <v>139.0031087239583</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B847" t="inlineStr">
+        <is>
+          <t>14:17:48</t>
+        </is>
+      </c>
+      <c r="C847" t="n">
+        <v>135.5452376302083</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B848" t="inlineStr">
+        <is>
+          <t>14:22:50</t>
+        </is>
+      </c>
+      <c r="C848" t="n">
+        <v>145.6230240885417</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B849" t="inlineStr">
+        <is>
+          <t>14:27:52</t>
+        </is>
+      </c>
+      <c r="C849" t="n">
+        <v>143.4969954427083</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B850" t="inlineStr">
+        <is>
+          <t>14:32:54</t>
+        </is>
+      </c>
+      <c r="C850" t="n">
+        <v>128.955478515625</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B851" t="inlineStr">
+        <is>
+          <t>14:37:55</t>
+        </is>
+      </c>
+      <c r="C851" t="n">
+        <v>144.5162369791667</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B852" t="inlineStr">
+        <is>
+          <t>14:42:57</t>
+        </is>
+      </c>
+      <c r="C852" t="n">
+        <v>142.3887955729167</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B853" t="inlineStr">
+        <is>
+          <t>14:47:59</t>
+        </is>
+      </c>
+      <c r="C853" t="n">
+        <v>145.6213541666667</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B854" t="inlineStr">
+        <is>
+          <t>14:53:01</t>
+        </is>
+      </c>
+      <c r="C854" t="n">
+        <v>146.2058333333333</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B855" t="inlineStr">
+        <is>
+          <t>14:58:03</t>
+        </is>
+      </c>
+      <c r="C855" t="n">
+        <v>144.4512955729167</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B856" t="inlineStr">
+        <is>
+          <t>15:03:05</t>
+        </is>
+      </c>
+      <c r="C856" t="n">
+        <v>133.474140625</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B857" t="inlineStr">
+        <is>
+          <t>15:08:06</t>
+        </is>
+      </c>
+      <c r="C857" t="n">
+        <v>145.06365234375</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B858" t="inlineStr">
+        <is>
+          <t>15:13:08</t>
+        </is>
+      </c>
+      <c r="C858" t="n">
+        <v>135.029501953125</v>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B859" t="inlineStr">
+        <is>
+          <t>15:18:10</t>
+        </is>
+      </c>
+      <c r="C859" t="n">
+        <v>146.360107421875</v>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B860" t="inlineStr">
+        <is>
+          <t>15:23:12</t>
+        </is>
+      </c>
+      <c r="C860" t="n">
+        <v>139.7806705729167</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B861" t="inlineStr">
+        <is>
+          <t>15:28:14</t>
+        </is>
+      </c>
+      <c r="C861" t="n">
+        <v>128.2967708333333</v>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B862" t="inlineStr">
+        <is>
+          <t>15:33:16</t>
+        </is>
+      </c>
+      <c r="C862" t="n">
+        <v>133.3602473958333</v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B863" t="inlineStr">
+        <is>
+          <t>15:38:18</t>
+        </is>
+      </c>
+      <c r="C863" t="n">
+        <v>145.046611328125</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B864" t="inlineStr">
+        <is>
+          <t>15:43:19</t>
+        </is>
+      </c>
+      <c r="C864" t="n">
+        <v>139.591376953125</v>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B865" t="inlineStr">
+        <is>
+          <t>15:48:21</t>
+        </is>
+      </c>
+      <c r="C865" t="n">
+        <v>150.4363671875</v>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B866" t="inlineStr">
+        <is>
+          <t>15:53:23</t>
+        </is>
+      </c>
+      <c r="C866" t="n">
+        <v>145.5435026041667</v>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B867" t="inlineStr">
+        <is>
+          <t>15:58:25</t>
+        </is>
+      </c>
+      <c r="C867" t="n">
+        <v>145.142666015625</v>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B868" t="inlineStr">
+        <is>
+          <t>16:03:27</t>
+        </is>
+      </c>
+      <c r="C868" t="n">
+        <v>135.6483430989583</v>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B869" t="inlineStr">
+        <is>
+          <t>16:08:29</t>
+        </is>
+      </c>
+      <c r="C869" t="n">
+        <v>131.7634928385417</v>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B870" t="inlineStr">
+        <is>
+          <t>16:13:30</t>
+        </is>
+      </c>
+      <c r="C870" t="n">
+        <v>132.9789713541667</v>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B871" t="inlineStr">
+        <is>
+          <t>16:18:32</t>
+        </is>
+      </c>
+      <c r="C871" t="n">
+        <v>133.4741764322917</v>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B872" t="inlineStr">
+        <is>
+          <t>16:23:34</t>
+        </is>
+      </c>
+      <c r="C872" t="n">
+        <v>138.1511848958333</v>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B873" t="inlineStr">
+        <is>
+          <t>16:28:36</t>
+        </is>
+      </c>
+      <c r="C873" t="n">
+        <v>144.8806705729167</v>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B874" t="inlineStr">
+        <is>
+          <t>16:33:38</t>
+        </is>
+      </c>
+      <c r="C874" t="n">
+        <v>141.0652864583333</v>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B875" t="inlineStr">
+        <is>
+          <t>16:38:40</t>
+        </is>
+      </c>
+      <c r="C875" t="n">
+        <v>143.631484375</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B876" t="inlineStr">
+        <is>
+          <t>16:43:42</t>
+        </is>
+      </c>
+      <c r="C876" t="n">
+        <v>147.9980989583333</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B877" t="inlineStr">
+        <is>
+          <t>16:48:43</t>
+        </is>
+      </c>
+      <c r="C877" t="n">
+        <v>144.7596223958333</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B878" t="inlineStr">
+        <is>
+          <t>16:53:45</t>
+        </is>
+      </c>
+      <c r="C878" t="n">
+        <v>138.988310546875</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B879" t="inlineStr">
+        <is>
+          <t>16:58:47</t>
+        </is>
+      </c>
+      <c r="C879" t="n">
+        <v>147.7834700520833</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B880" t="inlineStr">
+        <is>
+          <t>17:03:49</t>
+        </is>
+      </c>
+      <c r="C880" t="n">
+        <v>147.3735384114583</v>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B881" t="inlineStr">
+        <is>
+          <t>17:08:51</t>
+        </is>
+      </c>
+      <c r="C881" t="n">
+        <v>147.366787109375</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B882" t="inlineStr">
+        <is>
+          <t>17:13:53</t>
+        </is>
+      </c>
+      <c r="C882" t="n">
+        <v>149.7840885416667</v>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B883" t="inlineStr">
+        <is>
+          <t>17:18:55</t>
+        </is>
+      </c>
+      <c r="C883" t="n">
+        <v>147.663662109375</v>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B884" t="inlineStr">
+        <is>
+          <t>17:23:56</t>
+        </is>
+      </c>
+      <c r="C884" t="n">
+        <v>139.95634765625</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B885" t="inlineStr">
+        <is>
+          <t>17:28:58</t>
+        </is>
+      </c>
+      <c r="C885" t="n">
+        <v>142.7753645833333</v>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B886" t="inlineStr">
+        <is>
+          <t>17:34:00</t>
+        </is>
+      </c>
+      <c r="C886" t="n">
+        <v>142.4442936197917</v>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B887" t="inlineStr">
+        <is>
+          <t>17:39:02</t>
+        </is>
+      </c>
+      <c r="C887" t="n">
+        <v>141.8236393229167</v>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B888" t="inlineStr">
+        <is>
+          <t>17:44:04</t>
+        </is>
+      </c>
+      <c r="C888" t="n">
+        <v>143.1758561197917</v>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B889" t="inlineStr">
+        <is>
+          <t>17:49:06</t>
+        </is>
+      </c>
+      <c r="C889" t="n">
+        <v>145.4663248697917</v>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B890" t="inlineStr">
+        <is>
+          <t>17:54:07</t>
+        </is>
+      </c>
+      <c r="C890" t="n">
+        <v>135.5573046875</v>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B891" t="inlineStr">
+        <is>
+          <t>17:59:09</t>
+        </is>
+      </c>
+      <c r="C891" t="n">
+        <v>131.1531998697917</v>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B892" t="inlineStr">
+        <is>
+          <t>18:04:11</t>
+        </is>
+      </c>
+      <c r="C892" t="n">
+        <v>140.9380989583333</v>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B893" t="inlineStr">
+        <is>
+          <t>18:09:13</t>
+        </is>
+      </c>
+      <c r="C893" t="n">
+        <v>141.6274153645833</v>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B894" t="inlineStr">
+        <is>
+          <t>18:14:15</t>
+        </is>
+      </c>
+      <c r="C894" t="n">
+        <v>140.3102506510417</v>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B895" t="inlineStr">
+        <is>
+          <t>18:19:17</t>
+        </is>
+      </c>
+      <c r="C895" t="n">
+        <v>142.2920052083333</v>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B896" t="inlineStr">
+        <is>
+          <t>18:24:19</t>
+        </is>
+      </c>
+      <c r="C896" t="n">
+        <v>144.8127897135417</v>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B897" t="inlineStr">
+        <is>
+          <t>18:29:21</t>
+        </is>
+      </c>
+      <c r="C897" t="n">
+        <v>145.2923111979167</v>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B898" t="inlineStr">
+        <is>
+          <t>18:34:23</t>
+        </is>
+      </c>
+      <c r="C898" t="n">
+        <v>144.575390625</v>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B899" t="inlineStr">
+        <is>
+          <t>18:39:24</t>
+        </is>
+      </c>
+      <c r="C899" t="n">
+        <v>144.973466796875</v>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B900" t="inlineStr">
+        <is>
+          <t>18:44:26</t>
+        </is>
+      </c>
+      <c r="C900" t="n">
+        <v>168.896171875</v>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B901" t="inlineStr">
+        <is>
+          <t>18:49:28</t>
+        </is>
+      </c>
+      <c r="C901" t="n">
+        <v>168.7672102864583</v>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B902" t="inlineStr">
+        <is>
+          <t>18:54:30</t>
+        </is>
+      </c>
+      <c r="C902" t="n">
+        <v>167.1572200520833</v>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B903" t="inlineStr">
+        <is>
+          <t>18:59:32</t>
+        </is>
+      </c>
+      <c r="C903" t="n">
+        <v>166.8655436197917</v>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B904" t="inlineStr">
+        <is>
+          <t>19:04:34</t>
+        </is>
+      </c>
+      <c r="C904" t="n">
+        <v>167.4178125</v>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B905" t="inlineStr">
+        <is>
+          <t>19:09:36</t>
+        </is>
+      </c>
+      <c r="C905" t="n">
+        <v>165.9475618489583</v>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B906" t="inlineStr">
+        <is>
+          <t>19:14:38</t>
+        </is>
+      </c>
+      <c r="C906" t="n">
+        <v>164.7182682291667</v>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B907" t="inlineStr">
+        <is>
+          <t>19:19:40</t>
+        </is>
+      </c>
+      <c r="C907" t="n">
+        <v>172.06044921875</v>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B908" t="inlineStr">
+        <is>
+          <t>19:24:41</t>
+        </is>
+      </c>
+      <c r="C908" t="n">
+        <v>172.4388606770833</v>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B909" t="inlineStr">
+        <is>
+          <t>19:29:43</t>
+        </is>
+      </c>
+      <c r="C909" t="n">
+        <v>171.235654296875</v>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B910" t="inlineStr">
+        <is>
+          <t>19:34:45</t>
+        </is>
+      </c>
+      <c r="C910" t="n">
+        <v>170.1624576822917</v>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B911" t="inlineStr">
+        <is>
+          <t>19:39:47</t>
+        </is>
+      </c>
+      <c r="C911" t="n">
+        <v>169.481865234375</v>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B912" t="inlineStr">
+        <is>
+          <t>19:44:49</t>
+        </is>
+      </c>
+      <c r="C912" t="n">
+        <v>169.08083984375</v>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B913" t="inlineStr">
+        <is>
+          <t>19:49:51</t>
+        </is>
+      </c>
+      <c r="C913" t="n">
+        <v>165.6415397135417</v>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B914" t="inlineStr">
+        <is>
+          <t>19:54:53</t>
+        </is>
+      </c>
+      <c r="C914" t="n">
+        <v>160.908388671875</v>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B915" t="inlineStr">
+        <is>
+          <t>19:59:55</t>
+        </is>
+      </c>
+      <c r="C915" t="n">
+        <v>163.753994140625</v>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B916" t="inlineStr">
+        <is>
+          <t>20:04:57</t>
+        </is>
+      </c>
+      <c r="C916" t="n">
+        <v>169.362275390625</v>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B917" t="inlineStr">
+        <is>
+          <t>20:09:58</t>
+        </is>
+      </c>
+      <c r="C917" t="n">
+        <v>169.0203255208333</v>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B918" t="inlineStr">
+        <is>
+          <t>20:15:00</t>
+        </is>
+      </c>
+      <c r="C918" t="n">
+        <v>171.4630598958333</v>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B919" t="inlineStr">
+        <is>
+          <t>20:20:02</t>
+        </is>
+      </c>
+      <c r="C919" t="n">
+        <v>170.6878776041667</v>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B920" t="inlineStr">
+        <is>
+          <t>20:25:04</t>
+        </is>
+      </c>
+      <c r="C920" t="n">
+        <v>169.709638671875</v>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B921" t="inlineStr">
+        <is>
+          <t>20:30:06</t>
+        </is>
+      </c>
+      <c r="C921" t="n">
+        <v>192.7198079427083</v>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B922" t="inlineStr">
+        <is>
+          <t>20:35:08</t>
+        </is>
+      </c>
+      <c r="C922" t="n">
+        <v>192.7587858072917</v>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B923" t="inlineStr">
+        <is>
+          <t>20:40:10</t>
+        </is>
+      </c>
+      <c r="C923" t="n">
+        <v>192.165771484375</v>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B924" t="inlineStr">
+        <is>
+          <t>20:45:12</t>
+        </is>
+      </c>
+      <c r="C924" t="n">
+        <v>190.29701171875</v>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B925" t="inlineStr">
+        <is>
+          <t>20:50:14</t>
+        </is>
+      </c>
+      <c r="C925" t="n">
+        <v>174.6637760416667</v>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B926" t="inlineStr">
+        <is>
+          <t>20:55:16</t>
+        </is>
+      </c>
+      <c r="C926" t="n">
+        <v>87.45584635416667</v>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B927" t="inlineStr">
+        <is>
+          <t>21:00:18</t>
+        </is>
+      </c>
+      <c r="C927" t="n">
+        <v>48.6584375</v>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B928" t="inlineStr">
+        <is>
+          <t>21:05:20</t>
+        </is>
+      </c>
+      <c r="C928" t="n">
+        <v>20.28679036458333</v>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B929" t="inlineStr">
+        <is>
+          <t>21:10:21</t>
+        </is>
+      </c>
+      <c r="C929" t="n">
+        <v>8.328948567708334</v>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" t="inlineStr">
+        <is>
+          <t>22/05/2021</t>
+        </is>
+      </c>
+      <c r="B930" t="inlineStr">
+        <is>
+          <t>21:15:23</t>
+        </is>
+      </c>
+      <c r="C930" t="n">
+        <v>3.188414713541667</v>
       </c>
     </row>
   </sheetData>
